--- a/time spacing/words/words_V1.0.0.xlsx
+++ b/time spacing/words/words_V1.0.0.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:E382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,11 +437,14 @@
         </is>
       </c>
       <c r="C1" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D1" t="n">
         <v>2</v>
       </c>
+      <c r="E1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -460,6 +463,9 @@
       <c r="D2" t="n">
         <v>7</v>
       </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -478,6 +484,9 @@
       <c r="D3" t="n">
         <v>7</v>
       </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -496,6 +505,9 @@
       <c r="D4" t="n">
         <v>7</v>
       </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -514,6 +526,9 @@
       <c r="D5" t="n">
         <v>5</v>
       </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -527,10 +542,13 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -545,9 +563,12 @@
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -563,11 +584,14 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -581,11 +605,14 @@
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
       </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -599,11 +626,14 @@
         </is>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
       </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -617,11 +647,14 @@
         </is>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
       </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -635,10 +668,13 @@
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D12" t="n">
         <v>3</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -658,6 +694,9 @@
       <c r="D13" t="n">
         <v>7</v>
       </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -671,11 +710,14 @@
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
       </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -694,6 +736,9 @@
       <c r="D15" t="n">
         <v>7</v>
       </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -712,6 +757,9 @@
       <c r="D16" t="n">
         <v>7</v>
       </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -730,6 +778,9 @@
       <c r="D17" t="n">
         <v>4</v>
       </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -743,11 +794,14 @@
         </is>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
       </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -766,6 +820,9 @@
       <c r="D19" t="n">
         <v>3</v>
       </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -779,10 +836,13 @@
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -797,11 +857,14 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D21" t="n">
         <v>7</v>
       </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -815,10 +878,13 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -838,6 +904,9 @@
       <c r="D23" t="n">
         <v>5</v>
       </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -856,6 +925,9 @@
       <c r="D24" t="n">
         <v>7</v>
       </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -874,6 +946,9 @@
       <c r="D25" t="n">
         <v>7</v>
       </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -892,6 +967,9 @@
       <c r="D26" t="n">
         <v>7</v>
       </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -905,10 +983,13 @@
         </is>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45347</v>
+        <v>45363</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -928,6 +1009,9 @@
       <c r="D28" t="n">
         <v>7</v>
       </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -946,6 +1030,9 @@
       <c r="D29" t="n">
         <v>7</v>
       </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -964,6 +1051,9 @@
       <c r="D30" t="n">
         <v>3</v>
       </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -977,11 +1067,14 @@
         </is>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D31" t="n">
         <v>4</v>
       </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -995,11 +1088,14 @@
         </is>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D32" t="n">
         <v>7</v>
       </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1013,10 +1109,13 @@
         </is>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D33" t="n">
         <v>3</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1031,10 +1130,13 @@
         </is>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45347</v>
+        <v>45374</v>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1054,6 +1156,9 @@
       <c r="D35" t="n">
         <v>4</v>
       </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1067,10 +1172,13 @@
         </is>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D36" t="n">
         <v>3</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1090,6 +1198,9 @@
       <c r="D37" t="n">
         <v>7</v>
       </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1108,6 +1219,9 @@
       <c r="D38" t="n">
         <v>7</v>
       </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1126,6 +1240,9 @@
       <c r="D39" t="n">
         <v>4</v>
       </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1139,11 +1256,14 @@
         </is>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
       </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1162,6 +1282,9 @@
       <c r="D41" t="n">
         <v>7</v>
       </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1180,6 +1303,9 @@
       <c r="D42" t="n">
         <v>4</v>
       </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1198,6 +1324,9 @@
       <c r="D43" t="n">
         <v>4</v>
       </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1211,11 +1340,14 @@
         </is>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D44" t="n">
         <v>7</v>
       </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1234,6 +1366,9 @@
       <c r="D45" t="n">
         <v>7</v>
       </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1247,11 +1382,14 @@
         </is>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D46" t="n">
         <v>4</v>
       </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1265,10 +1403,13 @@
         </is>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D47" t="n">
         <v>3</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1283,11 +1424,14 @@
         </is>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D48" t="n">
         <v>4</v>
       </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1306,6 +1450,9 @@
       <c r="D49" t="n">
         <v>4</v>
       </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1324,6 +1471,9 @@
       <c r="D50" t="n">
         <v>4</v>
       </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1337,10 +1487,13 @@
         </is>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D51" t="n">
         <v>3</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1355,10 +1508,13 @@
         </is>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D52" t="n">
         <v>3</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1373,11 +1529,14 @@
         </is>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D53" t="n">
         <v>4</v>
       </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1396,6 +1555,9 @@
       <c r="D54" t="n">
         <v>7</v>
       </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1409,10 +1571,13 @@
         </is>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1432,6 +1597,9 @@
       <c r="D56" t="n">
         <v>7</v>
       </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1450,6 +1618,9 @@
       <c r="D57" t="n">
         <v>7</v>
       </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1463,11 +1634,14 @@
         </is>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D58" t="n">
         <v>7</v>
       </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1481,10 +1655,13 @@
         </is>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D59" t="n">
         <v>3</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1504,6 +1681,9 @@
       <c r="D60" t="n">
         <v>7</v>
       </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1522,6 +1702,9 @@
       <c r="D61" t="n">
         <v>4</v>
       </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1540,6 +1723,9 @@
       <c r="D62" t="n">
         <v>7</v>
       </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1553,11 +1739,14 @@
         </is>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
       </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1576,6 +1765,9 @@
       <c r="D64" t="n">
         <v>7</v>
       </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1594,6 +1786,9 @@
       <c r="D65" t="n">
         <v>4</v>
       </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1612,6 +1807,9 @@
       <c r="D66" t="n">
         <v>4</v>
       </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1630,6 +1828,9 @@
       <c r="D67" t="n">
         <v>4</v>
       </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1648,6 +1849,9 @@
       <c r="D68" t="n">
         <v>4</v>
       </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1666,6 +1870,9 @@
       <c r="D69" t="n">
         <v>7</v>
       </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1679,10 +1886,13 @@
         </is>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1702,6 +1912,9 @@
       <c r="D71" t="n">
         <v>4</v>
       </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1715,11 +1928,14 @@
         </is>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D72" t="n">
         <v>7</v>
       </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1733,10 +1949,13 @@
         </is>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1751,10 +1970,13 @@
         </is>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45347</v>
+        <v>45352</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1769,11 +1991,14 @@
         </is>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D75" t="n">
         <v>2</v>
       </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1787,10 +2012,13 @@
         </is>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D76" t="n">
         <v>3</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1810,6 +2038,9 @@
       <c r="D77" t="n">
         <v>7</v>
       </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1823,11 +2054,14 @@
         </is>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
       </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1846,6 +2080,9 @@
       <c r="D79" t="n">
         <v>7</v>
       </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1864,6 +2101,9 @@
       <c r="D80" t="n">
         <v>7</v>
       </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1882,6 +2122,9 @@
       <c r="D81" t="n">
         <v>7</v>
       </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1895,10 +2138,13 @@
         </is>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1918,6 +2164,9 @@
       <c r="D83" t="n">
         <v>4</v>
       </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1936,6 +2185,9 @@
       <c r="D84" t="n">
         <v>4</v>
       </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1949,10 +2201,13 @@
         </is>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1972,6 +2227,9 @@
       <c r="D86" t="n">
         <v>3</v>
       </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1990,6 +2248,9 @@
       <c r="D87" t="n">
         <v>7</v>
       </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2008,6 +2269,9 @@
       <c r="D88" t="n">
         <v>7</v>
       </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2021,10 +2285,13 @@
         </is>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2039,11 +2306,14 @@
         </is>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D90" t="n">
         <v>4</v>
       </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2062,6 +2332,9 @@
       <c r="D91" t="n">
         <v>7</v>
       </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2075,11 +2348,14 @@
         </is>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D92" t="n">
         <v>4</v>
       </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2093,10 +2369,13 @@
         </is>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D93" t="n">
         <v>3</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2111,10 +2390,13 @@
         </is>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2129,10 +2411,13 @@
         </is>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2147,9 +2432,12 @@
         </is>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2165,10 +2453,13 @@
         </is>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D97" t="n">
         <v>3</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2183,10 +2474,13 @@
         </is>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45349</v>
+        <v>45375</v>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2201,9 +2495,12 @@
         </is>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2219,11 +2516,14 @@
         </is>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D100" t="n">
         <v>4</v>
       </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2237,11 +2537,14 @@
         </is>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
       </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2255,10 +2558,13 @@
         </is>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45347</v>
+        <v>45363</v>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2273,10 +2579,13 @@
         </is>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D103" t="n">
         <v>3</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2296,6 +2605,9 @@
       <c r="D104" t="n">
         <v>4</v>
       </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2314,6 +2626,9 @@
       <c r="D105" t="n">
         <v>3</v>
       </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2327,10 +2642,13 @@
         </is>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45349</v>
+        <v>45375</v>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2350,6 +2668,9 @@
       <c r="D107" t="n">
         <v>8</v>
       </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2363,10 +2684,13 @@
         </is>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D108" t="n">
         <v>3</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2381,10 +2705,13 @@
         </is>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D109" t="n">
         <v>3</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2399,11 +2726,14 @@
         </is>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
       </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2417,10 +2747,13 @@
         </is>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D111" t="n">
         <v>3</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2435,10 +2768,13 @@
         </is>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45347</v>
+        <v>45375</v>
       </c>
       <c r="D112" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2453,10 +2789,13 @@
         </is>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D113" t="n">
         <v>3</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2471,11 +2810,14 @@
         </is>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D114" t="n">
         <v>4</v>
       </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2494,6 +2836,9 @@
       <c r="D115" t="n">
         <v>4</v>
       </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2507,10 +2852,13 @@
         </is>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D116" t="n">
         <v>3</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2525,10 +2873,13 @@
         </is>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D117" t="n">
         <v>3</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2543,11 +2894,14 @@
         </is>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D118" t="n">
         <v>4</v>
       </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2566,6 +2920,9 @@
       <c r="D119" t="n">
         <v>7</v>
       </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2579,11 +2936,14 @@
         </is>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D120" t="n">
         <v>4</v>
       </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2597,10 +2957,13 @@
         </is>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D121" t="n">
         <v>3</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2615,11 +2978,14 @@
         </is>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D122" t="n">
         <v>4</v>
       </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2633,10 +2999,13 @@
         </is>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D123" t="n">
         <v>3</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2651,9 +3020,12 @@
         </is>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2669,10 +3041,13 @@
         </is>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D125" t="n">
         <v>3</v>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2692,6 +3067,9 @@
       <c r="D126" t="n">
         <v>7</v>
       </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2710,6 +3088,9 @@
       <c r="D127" t="n">
         <v>7</v>
       </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2728,6 +3109,9 @@
       <c r="D128" t="n">
         <v>4</v>
       </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2741,10 +3125,13 @@
         </is>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D129" t="n">
         <v>3</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2764,6 +3151,9 @@
       <c r="D130" t="n">
         <v>7</v>
       </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2782,6 +3172,9 @@
       <c r="D131" t="n">
         <v>4</v>
       </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2800,6 +3193,9 @@
       <c r="D132" t="n">
         <v>4</v>
       </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2813,11 +3209,14 @@
         </is>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
       </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2831,10 +3230,13 @@
         </is>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D134" t="n">
         <v>3</v>
+      </c>
+      <c r="E134" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2849,10 +3251,13 @@
         </is>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D135" t="n">
         <v>3</v>
+      </c>
+      <c r="E135" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2870,9 +3275,12 @@
         </is>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2888,10 +3296,13 @@
         </is>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D137" t="n">
         <v>3</v>
+      </c>
+      <c r="E137" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -2906,10 +3317,13 @@
         </is>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45347</v>
+        <v>45353</v>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E138" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2924,9 +3338,12 @@
         </is>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2943,10 +3360,13 @@
         </is>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D140" t="n">
         <v>3</v>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2963,10 +3383,13 @@
         </is>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D141" t="n">
         <v>3</v>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2983,10 +3406,13 @@
         </is>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D142" t="n">
         <v>2</v>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3003,9 +3429,12 @@
         </is>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3021,11 +3450,14 @@
         </is>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D144" t="n">
         <v>2</v>
       </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3044,6 +3476,9 @@
       <c r="D145" t="n">
         <v>4</v>
       </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3058,9 +3493,12 @@
         </is>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3078,11 +3516,14 @@
         </is>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D147" t="n">
         <v>2</v>
       </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3096,11 +3537,14 @@
         </is>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D148" t="n">
         <v>2</v>
       </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3114,11 +3558,14 @@
         </is>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D149" t="n">
         <v>2</v>
       </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3137,6 +3584,9 @@
       <c r="D150" t="n">
         <v>4</v>
       </c>
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3151,10 +3601,13 @@
         </is>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D151" t="n">
         <v>3</v>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3170,10 +3623,13 @@
         </is>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45347</v>
+        <v>45352</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3189,11 +3645,14 @@
         </is>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
       </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3207,10 +3666,13 @@
         </is>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E154" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3225,9 +3687,12 @@
         </is>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3244,10 +3709,13 @@
         </is>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45347</v>
+        <v>45353</v>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E156" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3262,10 +3730,13 @@
         </is>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D157" t="n">
         <v>3</v>
+      </c>
+      <c r="E157" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -3281,9 +3752,12 @@
         </is>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3301,10 +3775,13 @@
         </is>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45347</v>
+        <v>45363</v>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3320,11 +3797,14 @@
         </is>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D160" t="n">
         <v>2</v>
       </c>
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3339,11 +3819,14 @@
         </is>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D161" t="n">
         <v>2</v>
       </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3357,9 +3840,12 @@
         </is>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3375,10 +3861,13 @@
         </is>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D163" t="n">
         <v>3</v>
+      </c>
+      <c r="E163" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3393,11 +3882,14 @@
         </is>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D164" t="n">
         <v>2</v>
       </c>
+      <c r="E164" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3411,9 +3903,12 @@
         </is>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3429,11 +3924,14 @@
         </is>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D166" t="n">
         <v>2</v>
       </c>
+      <c r="E166" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3448,9 +3946,12 @@
         </is>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3466,10 +3967,13 @@
         </is>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="D168" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3489,6 +3993,9 @@
       <c r="D169" t="n">
         <v>4</v>
       </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3503,9 +4010,12 @@
         </is>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3521,9 +4031,12 @@
         </is>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3539,11 +4052,14 @@
         </is>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D172" t="n">
         <v>2</v>
       </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3557,10 +4073,13 @@
         </is>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D173" t="n">
         <v>3</v>
+      </c>
+      <c r="E173" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3580,6 +4099,9 @@
       <c r="D174" t="n">
         <v>4</v>
       </c>
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3593,10 +4115,13 @@
         </is>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D175" t="n">
         <v>3</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3611,10 +4136,13 @@
         </is>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D176" t="n">
         <v>3</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3634,6 +4162,9 @@
       <c r="D177" t="n">
         <v>4</v>
       </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3647,11 +4178,14 @@
         </is>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
       </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3665,11 +4199,14 @@
         </is>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D179" t="n">
         <v>2</v>
       </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3683,10 +4220,13 @@
         </is>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D180" t="n">
         <v>3</v>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -3706,6 +4246,9 @@
       <c r="D181" t="n">
         <v>4</v>
       </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3719,11 +4262,14 @@
         </is>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D182" t="n">
         <v>2</v>
       </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3737,9 +4283,12 @@
         </is>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3756,11 +4305,14 @@
         </is>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D184" t="n">
         <v>2</v>
       </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3774,10 +4326,13 @@
         </is>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="D185" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E185" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -3792,10 +4347,13 @@
         </is>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D186" t="n">
         <v>3</v>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -3810,10 +4368,13 @@
         </is>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="D187" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -3828,10 +4389,13 @@
         </is>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45347</v>
+        <v>45352</v>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E188" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -3846,10 +4410,13 @@
         </is>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45347</v>
+        <v>45353</v>
       </c>
       <c r="D189" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E189" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -3869,6 +4436,9 @@
       <c r="D190" t="n">
         <v>4</v>
       </c>
+      <c r="E190" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3882,10 +4452,13 @@
         </is>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D191" t="n">
         <v>3</v>
+      </c>
+      <c r="E191" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -3900,10 +4473,13 @@
         </is>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D192" t="n">
         <v>3</v>
+      </c>
+      <c r="E192" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -3918,10 +4494,13 @@
         </is>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D193" t="n">
         <v>3</v>
+      </c>
+      <c r="E193" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -3937,10 +4516,13 @@
         </is>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="D194" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E194" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -3955,10 +4537,13 @@
         </is>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D195" t="n">
         <v>3</v>
+      </c>
+      <c r="E195" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -3973,11 +4558,14 @@
         </is>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D196" t="n">
         <v>2</v>
       </c>
+      <c r="E196" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3996,6 +4584,9 @@
       <c r="D197" t="n">
         <v>4</v>
       </c>
+      <c r="E197" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4009,10 +4600,13 @@
         </is>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D198" t="n">
         <v>3</v>
+      </c>
+      <c r="E198" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -4027,11 +4621,14 @@
         </is>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D199" t="n">
         <v>2</v>
       </c>
+      <c r="E199" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4045,9 +4642,12 @@
         </is>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4063,10 +4663,13 @@
         </is>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D201" t="n">
         <v>3</v>
+      </c>
+      <c r="E201" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -4081,11 +4684,14 @@
         </is>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D202" t="n">
         <v>2</v>
       </c>
+      <c r="E202" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4099,9 +4705,12 @@
         </is>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4117,9 +4726,12 @@
         </is>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4135,11 +4747,14 @@
         </is>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D205" t="n">
         <v>2</v>
       </c>
+      <c r="E205" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4153,9 +4768,12 @@
         </is>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4171,9 +4789,12 @@
         </is>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4189,9 +4810,12 @@
         </is>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4207,10 +4831,13 @@
         </is>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="D209" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E209" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -4225,11 +4852,14 @@
         </is>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D210" t="n">
         <v>2</v>
       </c>
+      <c r="E210" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4248,6 +4878,9 @@
       <c r="D211" t="n">
         <v>4</v>
       </c>
+      <c r="E211" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4261,10 +4894,13 @@
         </is>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45347</v>
+        <v>45363</v>
       </c>
       <c r="D212" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E212" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4279,11 +4915,14 @@
         </is>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D213" t="n">
         <v>2</v>
       </c>
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4302,6 +4941,9 @@
       <c r="D214" t="n">
         <v>3</v>
       </c>
+      <c r="E214" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4315,10 +4957,13 @@
         </is>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="D215" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E215" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -4333,9 +4978,12 @@
         </is>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D216" t="n">
+        <v>1</v>
+      </c>
+      <c r="E216" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4353,9 +5001,12 @@
         </is>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4371,10 +5022,13 @@
         </is>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="D218" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E218" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -4389,10 +5043,13 @@
         </is>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45347</v>
+        <v>45363</v>
       </c>
       <c r="D219" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E219" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -4407,9 +5064,12 @@
         </is>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4425,10 +5085,13 @@
         </is>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D221" t="n">
         <v>3</v>
+      </c>
+      <c r="E221" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -4444,9 +5107,12 @@
         </is>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4462,9 +5128,12 @@
         </is>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4480,11 +5149,14 @@
         </is>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D224" t="n">
         <v>1</v>
       </c>
+      <c r="E224" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4499,11 +5171,14 @@
         </is>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D225" t="n">
         <v>2</v>
       </c>
+      <c r="E225" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4517,11 +5192,14 @@
         </is>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D226" t="n">
         <v>2</v>
       </c>
+      <c r="E226" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -4540,6 +5218,9 @@
       <c r="D227" t="n">
         <v>4</v>
       </c>
+      <c r="E227" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4558,6 +5239,9 @@
       <c r="D228" t="n">
         <v>4</v>
       </c>
+      <c r="E228" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -4571,10 +5255,13 @@
         </is>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45347</v>
+        <v>45352</v>
       </c>
       <c r="D229" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E229" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -4589,10 +5276,13 @@
         </is>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D230" t="n">
         <v>3</v>
+      </c>
+      <c r="E230" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -4610,9 +5300,12 @@
         </is>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4628,9 +5321,12 @@
         </is>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4646,11 +5342,14 @@
         </is>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D233" t="n">
         <v>2</v>
       </c>
+      <c r="E233" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -4664,11 +5363,14 @@
         </is>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D234" t="n">
         <v>2</v>
       </c>
+      <c r="E234" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -4683,10 +5385,13 @@
         </is>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D235" t="n">
         <v>3</v>
+      </c>
+      <c r="E235" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -4701,10 +5406,13 @@
         </is>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D236" t="n">
         <v>3</v>
+      </c>
+      <c r="E236" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -4719,9 +5427,12 @@
         </is>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D237" t="n">
+        <v>1</v>
+      </c>
+      <c r="E237" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4737,11 +5448,14 @@
         </is>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D238" t="n">
         <v>2</v>
       </c>
+      <c r="E238" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -4755,10 +5469,13 @@
         </is>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D239" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E239" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -4773,10 +5490,13 @@
         </is>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D240" t="n">
         <v>3</v>
+      </c>
+      <c r="E240" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -4791,10 +5511,13 @@
         </is>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="D241" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E241" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -4809,11 +5532,14 @@
         </is>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D242" t="n">
         <v>2</v>
       </c>
+      <c r="E242" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -4827,10 +5553,13 @@
         </is>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D243" t="n">
         <v>3</v>
+      </c>
+      <c r="E243" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -4846,9 +5575,12 @@
         </is>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4864,9 +5596,12 @@
         </is>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4882,11 +5617,14 @@
         </is>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D246" t="n">
         <v>2</v>
       </c>
+      <c r="E246" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -4900,9 +5638,12 @@
         </is>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4918,10 +5659,13 @@
         </is>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E248" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -4936,9 +5680,12 @@
         </is>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4954,9 +5701,12 @@
         </is>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4977,6 +5727,9 @@
       <c r="D251" t="n">
         <v>2</v>
       </c>
+      <c r="E251" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -4991,9 +5744,12 @@
         </is>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5011,11 +5767,14 @@
         </is>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D253" t="n">
         <v>2</v>
       </c>
+      <c r="E253" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5029,9 +5788,12 @@
         </is>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5047,10 +5809,13 @@
         </is>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D255" t="n">
         <v>3</v>
+      </c>
+      <c r="E255" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -5065,10 +5830,13 @@
         </is>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45347</v>
+        <v>45363</v>
       </c>
       <c r="D256" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E256" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -5083,9 +5851,12 @@
         </is>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5101,9 +5872,12 @@
         </is>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5119,10 +5893,13 @@
         </is>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D259" t="n">
         <v>3</v>
+      </c>
+      <c r="E259" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -5137,11 +5914,14 @@
         </is>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D260" t="n">
         <v>2</v>
       </c>
+      <c r="E260" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -5155,11 +5935,14 @@
         </is>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D261" t="n">
         <v>2</v>
       </c>
+      <c r="E261" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -5173,9 +5956,12 @@
         </is>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5191,9 +5977,12 @@
         </is>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5209,9 +5998,12 @@
         </is>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5227,11 +6019,14 @@
         </is>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D265" t="n">
         <v>2</v>
       </c>
+      <c r="E265" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -5245,10 +6040,13 @@
         </is>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45347</v>
+        <v>45363</v>
       </c>
       <c r="D266" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E266" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -5263,11 +6061,14 @@
         </is>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D267" t="n">
         <v>2</v>
       </c>
+      <c r="E267" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -5281,10 +6082,13 @@
         </is>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D268" t="n">
         <v>3</v>
+      </c>
+      <c r="E268" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -5299,11 +6103,14 @@
         </is>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D269" t="n">
         <v>2</v>
       </c>
+      <c r="E269" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -5318,10 +6125,13 @@
         </is>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="D270" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E270" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -5336,10 +6146,13 @@
         </is>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45347</v>
+        <v>45352</v>
       </c>
       <c r="D271" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E271" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -5354,9 +6167,12 @@
         </is>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5372,9 +6188,12 @@
         </is>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5390,9 +6209,12 @@
         </is>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D274" t="n">
+        <v>0</v>
+      </c>
+      <c r="E274" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5408,9 +6230,12 @@
         </is>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5426,9 +6251,12 @@
         </is>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="D276" t="n">
+        <v>1</v>
+      </c>
+      <c r="E276" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5445,9 +6273,12 @@
         </is>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5464,11 +6295,14 @@
         </is>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D278" t="n">
         <v>1</v>
       </c>
+      <c r="E278" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -5483,9 +6317,12 @@
         </is>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5501,11 +6338,14 @@
         </is>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D280" t="n">
         <v>2</v>
       </c>
+      <c r="E280" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -5519,9 +6359,12 @@
         </is>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D281" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5537,9 +6380,12 @@
         </is>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5556,9 +6402,12 @@
         </is>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D283" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5575,10 +6424,13 @@
         </is>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D284" t="n">
         <v>3</v>
+      </c>
+      <c r="E284" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -5595,10 +6447,13 @@
         </is>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D285" t="n">
         <v>3</v>
+      </c>
+      <c r="E285" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -5615,9 +6470,12 @@
         </is>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5633,9 +6491,12 @@
         </is>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="D287" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5652,10 +6513,13 @@
         </is>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="D288" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E288" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -5670,9 +6534,12 @@
         </is>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5688,9 +6555,12 @@
         </is>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D290" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5706,9 +6576,12 @@
         </is>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D291" t="n">
+        <v>0</v>
+      </c>
+      <c r="E291" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5725,9 +6598,12 @@
         </is>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="D292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5744,11 +6620,14 @@
         </is>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D293" t="n">
         <v>2</v>
       </c>
+      <c r="E293" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -5763,9 +6642,12 @@
         </is>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5781,9 +6663,12 @@
         </is>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5799,9 +6684,12 @@
         </is>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E296" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5817,10 +6705,13 @@
         </is>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45347</v>
+        <v>45353</v>
       </c>
       <c r="D297" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E297" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -5835,10 +6726,13 @@
         </is>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="D298" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E298" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -5854,11 +6748,14 @@
         </is>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D299" t="n">
         <v>2</v>
       </c>
+      <c r="E299" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -5873,11 +6770,14 @@
         </is>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D300" t="n">
         <v>2</v>
       </c>
+      <c r="E300" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -5891,9 +6791,12 @@
         </is>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D301" t="n">
+        <v>0</v>
+      </c>
+      <c r="E301" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5909,11 +6812,14 @@
         </is>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D302" t="n">
         <v>1</v>
       </c>
+      <c r="E302" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -5933,6 +6839,9 @@
       <c r="D303" t="n">
         <v>3</v>
       </c>
+      <c r="E303" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -5947,9 +6856,12 @@
         </is>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D304" t="n">
+        <v>0</v>
+      </c>
+      <c r="E304" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5966,9 +6878,12 @@
         </is>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D305" t="n">
+        <v>0</v>
+      </c>
+      <c r="E305" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5984,9 +6899,12 @@
         </is>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E306" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6002,9 +6920,12 @@
         </is>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D307" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6020,9 +6941,12 @@
         </is>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D308" t="n">
+        <v>0</v>
+      </c>
+      <c r="E308" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6039,10 +6963,13 @@
         </is>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D309" t="n">
         <v>3</v>
+      </c>
+      <c r="E309" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -6057,10 +6984,13 @@
         </is>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D310" t="n">
         <v>2</v>
+      </c>
+      <c r="E310" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -6077,9 +7007,12 @@
         </is>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D311" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6097,10 +7030,13 @@
         </is>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D312" t="n">
         <v>3</v>
+      </c>
+      <c r="E312" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -6116,10 +7052,13 @@
         </is>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D313" t="n">
         <v>2</v>
+      </c>
+      <c r="E313" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -6137,10 +7076,13 @@
         </is>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D314" t="n">
         <v>3</v>
+      </c>
+      <c r="E314" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -6157,10 +7099,13 @@
         </is>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D315" t="n">
         <v>3</v>
+      </c>
+      <c r="E315" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -6176,11 +7121,14 @@
         </is>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D316" t="n">
         <v>2</v>
       </c>
+      <c r="E316" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -6194,9 +7142,12 @@
         </is>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D317" t="n">
+        <v>0</v>
+      </c>
+      <c r="E317" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6214,9 +7165,12 @@
         </is>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D318" t="n">
+        <v>0</v>
+      </c>
+      <c r="E318" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6233,10 +7187,13 @@
         </is>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45347</v>
+        <v>45353</v>
       </c>
       <c r="D319" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E319" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -6253,9 +7210,12 @@
         </is>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D320" t="n">
+        <v>1</v>
+      </c>
+      <c r="E320" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6275,10 +7235,13 @@
         </is>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D321" t="n">
         <v>3</v>
+      </c>
+      <c r="E321" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -6294,9 +7257,12 @@
         </is>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E322" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6312,9 +7278,12 @@
         </is>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D323" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6332,11 +7301,14 @@
         </is>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D324" t="n">
         <v>2</v>
       </c>
+      <c r="E324" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -6351,11 +7323,14 @@
         </is>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D325" t="n">
         <v>2</v>
       </c>
+      <c r="E325" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -6370,9 +7345,12 @@
         </is>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D326" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6389,9 +7367,12 @@
         </is>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D327" t="n">
+        <v>0</v>
+      </c>
+      <c r="E327" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6407,9 +7388,12 @@
         </is>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D328" t="n">
+        <v>0</v>
+      </c>
+      <c r="E328" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6425,9 +7409,12 @@
         </is>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D329" t="n">
+        <v>0</v>
+      </c>
+      <c r="E329" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6444,9 +7431,12 @@
         </is>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6462,11 +7452,14 @@
         </is>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D331" t="n">
         <v>2</v>
       </c>
+      <c r="E331" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -6481,9 +7474,12 @@
         </is>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D332" t="n">
+        <v>0</v>
+      </c>
+      <c r="E332" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6499,10 +7495,13 @@
         </is>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45347</v>
+        <v>45352</v>
       </c>
       <c r="D333" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E333" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -6518,9 +7517,12 @@
         </is>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D334" t="n">
+        <v>0</v>
+      </c>
+      <c r="E334" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6536,9 +7538,12 @@
         </is>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D335" t="n">
+        <v>0</v>
+      </c>
+      <c r="E335" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6554,10 +7559,13 @@
         </is>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D336" t="n">
         <v>2</v>
+      </c>
+      <c r="E336" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -6574,9 +7582,12 @@
         </is>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D337" t="n">
+        <v>0</v>
+      </c>
+      <c r="E337" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6592,9 +7603,12 @@
         </is>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D338" t="n">
+        <v>0</v>
+      </c>
+      <c r="E338" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6610,10 +7624,13 @@
         </is>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45347</v>
+        <v>45353</v>
       </c>
       <c r="D339" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E339" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -6628,10 +7645,13 @@
         </is>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45347</v>
+        <v>45352</v>
       </c>
       <c r="D340" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E340" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -6646,10 +7666,13 @@
         </is>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="D341" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E341" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -6664,10 +7687,13 @@
         </is>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D342" t="n">
         <v>3</v>
+      </c>
+      <c r="E342" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -6682,10 +7708,13 @@
         </is>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D343" t="n">
         <v>3</v>
+      </c>
+      <c r="E343" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -6708,6 +7737,9 @@
       <c r="D344" t="n">
         <v>3</v>
       </c>
+      <c r="E344" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -6722,11 +7754,14 @@
         </is>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D345" t="n">
         <v>2</v>
       </c>
+      <c r="E345" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -6740,9 +7775,12 @@
         </is>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D346" t="n">
+        <v>0</v>
+      </c>
+      <c r="E346" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6761,9 +7799,12 @@
         </is>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D347" t="n">
+        <v>0</v>
+      </c>
+      <c r="E347" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6779,11 +7820,14 @@
         </is>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D348" t="n">
         <v>2</v>
       </c>
+      <c r="E348" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -6797,9 +7841,12 @@
         </is>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D349" t="n">
+        <v>0</v>
+      </c>
+      <c r="E349" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6817,10 +7864,13 @@
         </is>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="D350" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E350" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -6835,9 +7885,12 @@
         </is>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D351" t="n">
+        <v>0</v>
+      </c>
+      <c r="E351" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6853,11 +7906,14 @@
         </is>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D352" t="n">
         <v>2</v>
       </c>
+      <c r="E352" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -6871,11 +7927,14 @@
         </is>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D353" t="n">
         <v>2</v>
       </c>
+      <c r="E353" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -6889,11 +7948,14 @@
         </is>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D354" t="n">
         <v>1</v>
       </c>
+      <c r="E354" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -6907,9 +7969,12 @@
         </is>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D355" t="n">
+        <v>0</v>
+      </c>
+      <c r="E355" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6931,6 +7996,9 @@
       <c r="D356" t="n">
         <v>4</v>
       </c>
+      <c r="E356" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -6944,9 +8012,12 @@
         </is>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D357" t="n">
+        <v>0</v>
+      </c>
+      <c r="E357" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6964,10 +8035,13 @@
         </is>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D358" t="n">
         <v>3</v>
+      </c>
+      <c r="E358" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -6983,9 +8057,12 @@
         </is>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="D359" t="n">
+        <v>0</v>
+      </c>
+      <c r="E359" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7001,10 +8078,13 @@
         </is>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45347</v>
+        <v>45353</v>
       </c>
       <c r="D360" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E360" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -7019,9 +8099,12 @@
         </is>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D361" t="n">
+        <v>0</v>
+      </c>
+      <c r="E361" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7037,11 +8120,14 @@
         </is>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D362" t="n">
         <v>2</v>
       </c>
+      <c r="E362" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -7055,9 +8141,12 @@
         </is>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D363" t="n">
+        <v>0</v>
+      </c>
+      <c r="E363" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7076,9 +8165,12 @@
         </is>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D364" t="n">
+        <v>0</v>
+      </c>
+      <c r="E364" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7094,9 +8186,12 @@
         </is>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="D365" t="n">
+        <v>0</v>
+      </c>
+      <c r="E365" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7114,9 +8209,12 @@
         </is>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D366" t="n">
+        <v>0</v>
+      </c>
+      <c r="E366" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7138,6 +8236,9 @@
       <c r="D367" t="n">
         <v>3</v>
       </c>
+      <c r="E367" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -7151,10 +8252,13 @@
         </is>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D368" t="n">
         <v>2</v>
+      </c>
+      <c r="E368" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -7176,6 +8280,9 @@
       <c r="D369" t="n">
         <v>2</v>
       </c>
+      <c r="E369" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -7191,9 +8298,12 @@
         </is>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D370" t="n">
+        <v>0</v>
+      </c>
+      <c r="E370" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7210,9 +8320,12 @@
         </is>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D371" t="n">
+        <v>0</v>
+      </c>
+      <c r="E371" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7228,11 +8341,14 @@
         </is>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="D372" t="n">
         <v>1</v>
       </c>
+      <c r="E372" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -7246,10 +8362,13 @@
         </is>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D373" t="n">
         <v>3</v>
+      </c>
+      <c r="E373" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -7264,11 +8383,14 @@
         </is>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D374" t="n">
         <v>2</v>
       </c>
+      <c r="E374" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -7283,9 +8405,12 @@
         </is>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D375" t="n">
+        <v>0</v>
+      </c>
+      <c r="E375" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7301,9 +8426,12 @@
         </is>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="D376" t="n">
+        <v>1</v>
+      </c>
+      <c r="E376" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7321,9 +8449,12 @@
         </is>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D377" t="n">
+        <v>0</v>
+      </c>
+      <c r="E377" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7344,6 +8475,9 @@
       <c r="D378" t="n">
         <v>3</v>
       </c>
+      <c r="E378" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -7358,11 +8492,14 @@
         </is>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D379" t="n">
         <v>1</v>
       </c>
+      <c r="E379" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -7376,9 +8513,12 @@
         </is>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D380" t="n">
+        <v>0</v>
+      </c>
+      <c r="E380" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7394,9 +8534,12 @@
         </is>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="D381" t="n">
+        <v>0</v>
+      </c>
+      <c r="E381" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7416,6 +8559,9 @@
       </c>
       <c r="D382" t="n">
         <v>4</v>
+      </c>
+      <c r="E382" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/time spacing/words/words_V1.0.0.xlsx
+++ b/time spacing/words/words_V1.0.0.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="C1" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D1" t="n">
         <v>2</v>
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45349</v>
+        <v>45366</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45349</v>
+        <v>45377</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -605,10 +605,10 @@
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45349</v>
+        <v>45380</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D12" t="n">
         <v>3</v>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45349</v>
+        <v>45380</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D21" t="n">
         <v>7</v>
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D31" t="n">
         <v>4</v>
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D32" t="n">
         <v>7</v>
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45349</v>
+        <v>45366</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D35" t="n">
         <v>4</v>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D36" t="n">
         <v>3</v>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45349</v>
+        <v>45355</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D44" t="n">
         <v>7</v>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D46" t="n">
         <v>4</v>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D47" t="n">
         <v>3</v>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D48" t="n">
         <v>4</v>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D51" t="n">
         <v>3</v>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D52" t="n">
         <v>3</v>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D53" t="n">
         <v>4</v>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D58" t="n">
         <v>7</v>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D59" t="n">
         <v>3</v>
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D66" t="n">
         <v>4</v>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D67" t="n">
         <v>4</v>
@@ -1886,10 +1886,10 @@
         </is>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45350</v>
+        <v>45353</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D71" t="n">
         <v>4</v>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D72" t="n">
         <v>7</v>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D75" t="n">
         <v>2</v>
@@ -2012,10 +2012,10 @@
         </is>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45349</v>
+        <v>45353</v>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D80" t="n">
         <v>7</v>
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D90" t="n">
         <v>4</v>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D92" t="n">
         <v>4</v>
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45349</v>
+        <v>45366</v>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D97" t="n">
         <v>3</v>
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2516,10 +2516,10 @@
         </is>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45349</v>
+        <v>45377</v>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D103" t="n">
         <v>3</v>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D105" t="n">
         <v>3</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D108" t="n">
         <v>3</v>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D109" t="n">
         <v>3</v>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45349</v>
+        <v>45353</v>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D113" t="n">
         <v>3</v>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D114" t="n">
         <v>4</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D116" t="n">
         <v>3</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D117" t="n">
         <v>3</v>
@@ -2894,7 +2894,7 @@
         </is>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D118" t="n">
         <v>4</v>
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D120" t="n">
         <v>4</v>
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D121" t="n">
         <v>3</v>
@@ -2978,7 +2978,7 @@
         </is>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D122" t="n">
         <v>4</v>
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D123" t="n">
         <v>3</v>
@@ -3020,10 +3020,10 @@
         </is>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D125" t="n">
         <v>3</v>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D129" t="n">
         <v>3</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D134" t="n">
         <v>3</v>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D135" t="n">
         <v>3</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -3296,10 +3296,10 @@
         </is>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45349</v>
+        <v>45366</v>
       </c>
       <c r="D137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         </is>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D140" t="n">
         <v>3</v>
@@ -3383,7 +3383,7 @@
         </is>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D141" t="n">
         <v>3</v>
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D142" t="n">
         <v>2</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D144" t="n">
         <v>2</v>
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D145" t="n">
         <v>4</v>
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D147" t="n">
         <v>2</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D148" t="n">
         <v>2</v>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D149" t="n">
         <v>2</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D151" t="n">
         <v>3</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D157" t="n">
         <v>3</v>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D160" t="n">
         <v>2</v>
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D161" t="n">
         <v>2</v>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D163" t="n">
         <v>3</v>
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D164" t="n">
         <v>2</v>
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3924,10 +3924,10 @@
         </is>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45349</v>
+        <v>45355</v>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D172" t="n">
         <v>2</v>
@@ -4073,10 +4073,10 @@
         </is>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45349</v>
+        <v>45366</v>
       </c>
       <c r="D173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D175" t="n">
         <v>3</v>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D176" t="n">
         <v>3</v>
@@ -4178,10 +4178,10 @@
         </is>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45349</v>
+        <v>45353</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
@@ -4199,7 +4199,7 @@
         </is>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D179" t="n">
         <v>2</v>
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D180" t="n">
         <v>3</v>
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D182" t="n">
         <v>2</v>
@@ -4283,7 +4283,7 @@
         </is>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D184" t="n">
         <v>2</v>
@@ -4347,10 +4347,10 @@
         </is>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45349</v>
+        <v>45366</v>
       </c>
       <c r="D186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D191" t="n">
         <v>3</v>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D192" t="n">
         <v>3</v>
@@ -4494,7 +4494,7 @@
         </is>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D193" t="n">
         <v>3</v>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D194" t="n">
         <v>2</v>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D195" t="n">
         <v>3</v>
@@ -4558,7 +4558,7 @@
         </is>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D196" t="n">
         <v>2</v>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D198" t="n">
         <v>3</v>
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D199" t="n">
         <v>2</v>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D201" t="n">
         <v>3</v>
@@ -4684,10 +4684,10 @@
         </is>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45349</v>
+        <v>45355</v>
       </c>
       <c r="D202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E202" t="b">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D205" t="n">
         <v>2</v>
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         </is>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D210" t="n">
         <v>2</v>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D213" t="n">
         <v>2</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D214" t="n">
         <v>3</v>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -5001,7 +5001,7 @@
         </is>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -5064,7 +5064,7 @@
         </is>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D221" t="n">
         <v>3</v>
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         </is>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D224" t="n">
         <v>1</v>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D225" t="n">
         <v>2</v>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D226" t="n">
         <v>2</v>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D230" t="n">
         <v>3</v>
@@ -5300,7 +5300,7 @@
         </is>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232" t="b">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D233" t="n">
         <v>2</v>
@@ -5363,7 +5363,7 @@
         </is>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D234" t="n">
         <v>2</v>
@@ -5385,7 +5385,7 @@
         </is>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D235" t="n">
         <v>3</v>
@@ -5406,7 +5406,7 @@
         </is>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D236" t="n">
         <v>3</v>
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D237" t="n">
         <v>1</v>
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D238" t="n">
         <v>2</v>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D239" t="n">
         <v>1</v>
@@ -5490,7 +5490,7 @@
         </is>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D240" t="n">
         <v>3</v>
@@ -5511,7 +5511,7 @@
         </is>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D241" t="n">
         <v>2</v>
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D242" t="n">
         <v>2</v>
@@ -5553,7 +5553,7 @@
         </is>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D243" t="n">
         <v>3</v>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D244" t="n">
         <v>0</v>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D246" t="n">
         <v>2</v>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D248" t="n">
         <v>2</v>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D249" t="n">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         </is>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D251" t="n">
         <v>2</v>
@@ -5744,7 +5744,7 @@
         </is>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D252" t="n">
         <v>0</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D253" t="n">
         <v>2</v>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D255" t="n">
         <v>3</v>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -5872,10 +5872,10 @@
         </is>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E258" t="b">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D259" t="n">
         <v>3</v>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D260" t="n">
         <v>2</v>
@@ -5935,7 +5935,7 @@
         </is>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D261" t="n">
         <v>2</v>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         </is>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D264" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         </is>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D265" t="n">
         <v>2</v>
@@ -6061,7 +6061,7 @@
         </is>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D267" t="n">
         <v>2</v>
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D268" t="n">
         <v>3</v>
@@ -6103,7 +6103,7 @@
         </is>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D269" t="n">
         <v>2</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         </is>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D274" t="n">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         </is>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D275" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D276" t="n">
         <v>1</v>
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -6295,7 +6295,7 @@
         </is>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D278" t="n">
         <v>1</v>
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         </is>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D280" t="n">
         <v>2</v>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D281" t="n">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D282" t="n">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D283" t="n">
         <v>0</v>
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D284" t="n">
         <v>3</v>
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D285" t="n">
         <v>3</v>
@@ -6470,7 +6470,7 @@
         </is>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D286" t="n">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D287" t="n">
         <v>1</v>
@@ -6534,7 +6534,7 @@
         </is>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D289" t="n">
         <v>0</v>
@@ -6555,7 +6555,7 @@
         </is>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D290" t="n">
         <v>0</v>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D291" t="n">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D292" t="n">
         <v>0</v>
@@ -6620,7 +6620,7 @@
         </is>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D293" t="n">
         <v>2</v>
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D294" t="n">
         <v>0</v>
@@ -6663,7 +6663,7 @@
         </is>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D295" t="n">
         <v>0</v>
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D296" t="n">
         <v>0</v>
@@ -6726,10 +6726,10 @@
         </is>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="D298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E298" t="b">
         <v>0</v>
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D299" t="n">
         <v>2</v>
@@ -6770,7 +6770,7 @@
         </is>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D300" t="n">
         <v>2</v>
@@ -6791,7 +6791,7 @@
         </is>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D301" t="n">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D302" t="n">
         <v>1</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45351</v>
+        <v>45366</v>
       </c>
       <c r="D303" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E303" t="b">
         <v>0</v>
@@ -6856,7 +6856,7 @@
         </is>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D304" t="n">
         <v>0</v>
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D305" t="n">
         <v>0</v>
@@ -6899,7 +6899,7 @@
         </is>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D306" t="n">
         <v>0</v>
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D307" t="n">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D308" t="n">
         <v>0</v>
@@ -6963,7 +6963,7 @@
         </is>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D309" t="n">
         <v>3</v>
@@ -6984,7 +6984,7 @@
         </is>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D310" t="n">
         <v>2</v>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D311" t="n">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D312" t="n">
         <v>3</v>
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D313" t="n">
         <v>2</v>
@@ -7076,10 +7076,10 @@
         </is>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45349</v>
+        <v>45366</v>
       </c>
       <c r="D314" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E314" t="b">
         <v>0</v>
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D315" t="n">
         <v>3</v>
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D316" t="n">
         <v>2</v>
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="D317" t="n">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         </is>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D318" t="n">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D320" t="n">
         <v>1</v>
@@ -7235,7 +7235,7 @@
         </is>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D321" t="n">
         <v>3</v>
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D322" t="n">
         <v>0</v>
@@ -7278,7 +7278,7 @@
         </is>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D323" t="n">
         <v>0</v>
@@ -7301,7 +7301,7 @@
         </is>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D324" t="n">
         <v>2</v>
@@ -7323,7 +7323,7 @@
         </is>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D325" t="n">
         <v>2</v>
@@ -7345,10 +7345,10 @@
         </is>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E326" t="b">
         <v>0</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D327" t="n">
         <v>0</v>
@@ -7388,7 +7388,7 @@
         </is>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D328" t="n">
         <v>0</v>
@@ -7409,7 +7409,7 @@
         </is>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D329" t="n">
         <v>0</v>
@@ -7431,7 +7431,7 @@
         </is>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D330" t="n">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D331" t="n">
         <v>2</v>
@@ -7474,7 +7474,7 @@
         </is>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D332" t="n">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="D334" t="n">
         <v>0</v>
@@ -7538,7 +7538,7 @@
         </is>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D335" t="n">
         <v>0</v>
@@ -7559,7 +7559,7 @@
         </is>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D336" t="n">
         <v>2</v>
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D337" t="n">
         <v>0</v>
@@ -7603,7 +7603,7 @@
         </is>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D338" t="n">
         <v>0</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D342" t="n">
         <v>3</v>
@@ -7708,10 +7708,10 @@
         </is>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45349</v>
+        <v>45366</v>
       </c>
       <c r="D343" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E343" t="b">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D344" t="n">
         <v>3</v>
@@ -7754,10 +7754,10 @@
         </is>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45349</v>
+        <v>45355</v>
       </c>
       <c r="D345" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E345" t="b">
         <v>0</v>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D346" t="n">
         <v>0</v>
@@ -7799,7 +7799,7 @@
         </is>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D347" t="n">
         <v>0</v>
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D348" t="n">
         <v>2</v>
@@ -7841,7 +7841,7 @@
         </is>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D349" t="n">
         <v>0</v>
@@ -7885,7 +7885,7 @@
         </is>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D351" t="n">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45349</v>
+        <v>45355</v>
       </c>
       <c r="D352" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E352" t="b">
         <v>0</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D353" t="n">
         <v>2</v>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D354" t="n">
         <v>1</v>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D355" t="n">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D357" t="n">
         <v>0</v>
@@ -8035,7 +8035,7 @@
         </is>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D358" t="n">
         <v>3</v>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -8099,7 +8099,7 @@
         </is>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -8120,7 +8120,7 @@
         </is>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D362" t="n">
         <v>2</v>
@@ -8141,7 +8141,7 @@
         </is>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -8165,10 +8165,10 @@
         </is>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="D364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E364" t="b">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         </is>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -8209,7 +8209,7 @@
         </is>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         </is>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D367" t="n">
         <v>3</v>
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D368" t="n">
         <v>2</v>
@@ -8275,7 +8275,7 @@
         </is>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D369" t="n">
         <v>2</v>
@@ -8298,7 +8298,7 @@
         </is>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         </is>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -8341,7 +8341,7 @@
         </is>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D372" t="n">
         <v>1</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D373" t="n">
         <v>3</v>
@@ -8383,7 +8383,7 @@
         </is>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D374" t="n">
         <v>2</v>
@@ -8405,7 +8405,7 @@
         </is>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D375" t="n">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         </is>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D376" t="n">
         <v>1</v>
@@ -8449,7 +8449,7 @@
         </is>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D377" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="D378" t="n">
         <v>3</v>
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D379" t="n">
         <v>1</v>
@@ -8513,7 +8513,7 @@
         </is>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D380" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         </is>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="D381" t="n">
         <v>0</v>

--- a/time spacing/words/words_V1.0.0.xlsx
+++ b/time spacing/words/words_V1.0.0.xlsx
@@ -2398,9 +2398,6 @@
     <t>question</t>
   </si>
   <si>
-    <t>anser</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -2408,6 +2405,9 @@
   </si>
   <si>
     <t>fr_to_eng</t>
+  </si>
+  <si>
+    <t>answer</t>
   </si>
 </sst>
 </file>
@@ -2746,7 +2746,7 @@
   <dimension ref="A1:E383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2756,16 +2756,16 @@
         <v>754</v>
       </c>
       <c r="B1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C1" t="s">
         <v>755</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>756</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>757</v>
-      </c>
-      <c r="E1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/time spacing/words/words_V1.0.0.xlsx
+++ b/time spacing/words/words_V1.0.0.xlsx
@@ -501,21 +501,23 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
     </row>
@@ -531,21 +533,23 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45375</v>
+        <v>45406</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -575,7 +579,7 @@
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="b">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -593,7 +597,7 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D5" t="n">
         <v>7</v>
@@ -623,7 +627,7 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -653,21 +657,23 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45375</v>
+        <v>45404</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
     </row>
@@ -683,7 +689,7 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -713,21 +719,23 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45377</v>
+        <v>45406</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
     </row>
@@ -773,7 +781,7 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
@@ -835,7 +843,7 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
@@ -865,7 +873,7 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D14" t="n">
         <v>7</v>
@@ -927,21 +935,23 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45375</v>
+        <v>45405</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
     </row>
@@ -1051,21 +1061,23 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45375</v>
+        <v>45405</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
     </row>
@@ -1081,7 +1093,7 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D21" t="n">
         <v>4</v>
@@ -1141,7 +1153,7 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
@@ -1171,7 +1183,7 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D24" t="n">
         <v>5</v>
@@ -1201,21 +1213,23 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45375</v>
+        <v>45407</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
     </row>
@@ -1231,7 +1245,7 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D26" t="n">
         <v>7</v>
@@ -1307,7 +1321,7 @@
       <c r="G28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="b">
+      <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -1483,10 +1497,10 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1495,9 +1509,11 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
     </row>
@@ -1513,21 +1529,23 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45375</v>
+        <v>45404</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
     </row>
@@ -1543,10 +1561,10 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1555,9 +1573,11 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
     </row>
@@ -1573,21 +1593,23 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45375</v>
+        <v>45392</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
     </row>
@@ -1635,21 +1657,23 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45375</v>
+        <v>45405</v>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
     </row>
@@ -1665,7 +1689,7 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D40" t="n">
         <v>4</v>
@@ -1695,7 +1719,7 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
@@ -1727,7 +1751,7 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D42" t="n">
         <v>7</v>
@@ -1789,21 +1813,23 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45375</v>
+        <v>45403</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
     </row>
@@ -1819,7 +1845,7 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
@@ -1849,7 +1875,7 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D46" t="n">
         <v>7</v>
@@ -1879,10 +1905,10 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -1891,9 +1917,11 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
     </row>
@@ -1909,7 +1937,7 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D48" t="n">
         <v>3</v>
@@ -1939,7 +1967,7 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -1953,7 +1981,7 @@
       <c r="G49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="b">
+      <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -2033,7 +2061,7 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D52" t="n">
         <v>3</v>
@@ -2063,21 +2091,23 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45375</v>
+        <v>45394</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
     </row>
@@ -2123,7 +2153,7 @@
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D55" t="n">
         <v>7</v>
@@ -2153,7 +2183,7 @@
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D56" t="n">
         <v>4</v>
@@ -2245,7 +2275,7 @@
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D59" t="n">
         <v>7</v>
@@ -2321,7 +2351,7 @@
       <c r="G61" t="n">
         <v>1</v>
       </c>
-      <c r="H61" t="b">
+      <c r="H61" t="n">
         <v>1</v>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -2339,7 +2369,7 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D62" t="n">
         <v>4</v>
@@ -2399,7 +2429,7 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D64" t="n">
         <v>4</v>
@@ -2429,21 +2459,23 @@
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45375</v>
+        <v>45407</v>
       </c>
       <c r="D65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
     </row>
@@ -2491,24 +2523,26 @@
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
         <v>2</v>
       </c>
-      <c r="E67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2523,21 +2557,23 @@
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45375</v>
+        <v>45403</v>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
     </row>
@@ -2553,7 +2589,7 @@
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D69" t="n">
         <v>4</v>
@@ -2583,7 +2619,7 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D70" t="n">
         <v>7</v>
@@ -2613,7 +2649,7 @@
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -2659,7 +2695,7 @@
       <c r="G72" t="n">
         <v>1</v>
       </c>
-      <c r="H72" t="b">
+      <c r="H72" t="n">
         <v>1</v>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -2709,21 +2745,23 @@
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45375</v>
+        <v>45394</v>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
     </row>
@@ -2771,10 +2809,10 @@
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
@@ -2783,9 +2821,11 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
     </row>
@@ -2801,7 +2841,7 @@
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D77" t="n">
         <v>3</v>
@@ -2831,7 +2871,7 @@
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D78" t="n">
         <v>7</v>
@@ -2893,7 +2933,7 @@
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D80" t="n">
         <v>7</v>
@@ -2923,21 +2963,23 @@
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45375</v>
+        <v>45408</v>
       </c>
       <c r="D81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
     </row>
@@ -2985,24 +3027,26 @@
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45378</v>
+        <v>45405</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
       <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -3017,7 +3061,7 @@
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D84" t="n">
         <v>4</v>
@@ -3047,21 +3091,23 @@
         </is>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45375</v>
+        <v>45405</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
     </row>
@@ -3077,21 +3123,23 @@
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45375</v>
+        <v>45393</v>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
     </row>
@@ -3107,21 +3155,23 @@
         </is>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45375</v>
+        <v>45394</v>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
     </row>
@@ -3137,21 +3187,23 @@
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45375</v>
+        <v>45407</v>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
     </row>
@@ -3167,7 +3219,7 @@
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D89" t="n">
         <v>7</v>
@@ -3211,7 +3263,7 @@
       <c r="G90" t="n">
         <v>1</v>
       </c>
-      <c r="H90" t="b">
+      <c r="H90" t="n">
         <v>1</v>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -3229,7 +3281,7 @@
         </is>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D91" t="n">
         <v>4</v>
@@ -3259,7 +3311,7 @@
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D92" t="n">
         <v>7</v>
@@ -3289,7 +3341,7 @@
         </is>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D93" t="n">
         <v>4</v>
@@ -3319,21 +3371,23 @@
         </is>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45375</v>
+        <v>45404</v>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
     </row>
@@ -3349,7 +3403,7 @@
         </is>
       </c>
       <c r="C95" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
@@ -3379,7 +3433,7 @@
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D96" t="n">
         <v>3</v>
@@ -3409,7 +3463,7 @@
         </is>
       </c>
       <c r="C97" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -3421,9 +3475,11 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
     </row>
@@ -3439,7 +3495,7 @@
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D98" t="n">
         <v>3</v>
@@ -3469,21 +3525,23 @@
         </is>
       </c>
       <c r="C99" s="2" t="n">
-        <v>45375</v>
+        <v>45406</v>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
     </row>
@@ -3499,7 +3557,7 @@
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -3531,7 +3589,7 @@
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="D101" t="n">
         <v>5</v>
@@ -3561,7 +3619,7 @@
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -3591,7 +3649,7 @@
         </is>
       </c>
       <c r="C103" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D103" t="n">
         <v>4</v>
@@ -3635,7 +3693,7 @@
       <c r="G104" t="n">
         <v>1</v>
       </c>
-      <c r="H104" t="b">
+      <c r="H104" t="n">
         <v>1</v>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -3667,7 +3725,7 @@
       <c r="G105" t="n">
         <v>1</v>
       </c>
-      <c r="H105" t="b">
+      <c r="H105" t="n">
         <v>1</v>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -3685,21 +3743,23 @@
         </is>
       </c>
       <c r="C106" s="2" t="n">
-        <v>45375</v>
+        <v>45392</v>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
     </row>
@@ -3715,7 +3775,7 @@
         </is>
       </c>
       <c r="C107" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D107" t="n">
         <v>5</v>
@@ -3745,7 +3805,7 @@
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>45375</v>
+        <v>45408</v>
       </c>
       <c r="D108" t="n">
         <v>8</v>
@@ -3754,12 +3814,14 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
-      </c>
-      <c r="H108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H108" t="b">
+        <v>1</v>
+      </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
     </row>
@@ -3775,10 +3837,10 @@
         </is>
       </c>
       <c r="C109" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
@@ -3787,9 +3849,11 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
     </row>
@@ -3805,7 +3869,7 @@
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -3837,7 +3901,7 @@
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -3849,9 +3913,11 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
     </row>
@@ -3867,7 +3933,7 @@
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -3897,7 +3963,7 @@
         </is>
       </c>
       <c r="C113" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D113" t="n">
         <v>5</v>
@@ -3927,21 +3993,23 @@
         </is>
       </c>
       <c r="C114" s="2" t="n">
-        <v>45375</v>
+        <v>45392</v>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
     </row>
@@ -3957,7 +4025,7 @@
         </is>
       </c>
       <c r="C115" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D115" t="n">
         <v>4</v>
@@ -3987,7 +4055,7 @@
         </is>
       </c>
       <c r="C116" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D116" t="n">
         <v>4</v>
@@ -4017,10 +4085,10 @@
         </is>
       </c>
       <c r="C117" s="2" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="D117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
@@ -4029,12 +4097,14 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
       <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -4049,7 +4119,7 @@
         </is>
       </c>
       <c r="C118" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -4113,7 +4183,7 @@
         </is>
       </c>
       <c r="C120" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D120" t="n">
         <v>7</v>
@@ -4143,7 +4213,7 @@
         </is>
       </c>
       <c r="C121" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D121" t="n">
         <v>4</v>
@@ -4173,21 +4243,23 @@
         </is>
       </c>
       <c r="C122" s="2" t="n">
-        <v>45375</v>
+        <v>45392</v>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
-      </c>
-      <c r="H122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
     </row>
@@ -4203,7 +4275,7 @@
         </is>
       </c>
       <c r="C123" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D123" t="n">
         <v>4</v>
@@ -4233,10 +4305,10 @@
         </is>
       </c>
       <c r="C124" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
@@ -4245,9 +4317,11 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
     </row>
@@ -4263,7 +4337,7 @@
         </is>
       </c>
       <c r="C125" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -4275,9 +4349,11 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
     </row>
@@ -4293,21 +4369,23 @@
         </is>
       </c>
       <c r="C126" s="2" t="n">
-        <v>45375</v>
+        <v>45391</v>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
     </row>
@@ -4449,7 +4527,7 @@
         </is>
       </c>
       <c r="C131" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D131" t="n">
         <v>7</v>
@@ -4479,7 +4557,7 @@
         </is>
       </c>
       <c r="C132" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D132" t="n">
         <v>4</v>
@@ -4509,21 +4587,23 @@
         </is>
       </c>
       <c r="C133" s="2" t="n">
-        <v>45375</v>
+        <v>45402</v>
       </c>
       <c r="D133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
     </row>
@@ -4539,7 +4619,7 @@
         </is>
       </c>
       <c r="C134" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D134" t="n">
         <v>2</v>
@@ -4573,7 +4653,7 @@
         </is>
       </c>
       <c r="C135" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D135" t="n">
         <v>3</v>
@@ -4617,7 +4697,7 @@
       <c r="G136" t="n">
         <v>1</v>
       </c>
-      <c r="H136" t="b">
+      <c r="H136" t="n">
         <v>1</v>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -4638,7 +4718,7 @@
         </is>
       </c>
       <c r="C137" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -4670,7 +4750,7 @@
         </is>
       </c>
       <c r="C138" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D138" t="n">
         <v>4</v>
@@ -4700,7 +4780,7 @@
         </is>
       </c>
       <c r="C139" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D139" t="n">
         <v>3</v>
@@ -4730,7 +4810,7 @@
         </is>
       </c>
       <c r="C140" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -4795,10 +4875,10 @@
         </is>
       </c>
       <c r="C142" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
@@ -4807,9 +4887,11 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
-      </c>
-      <c r="H142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
     </row>
@@ -4827,27 +4909,29 @@
         </is>
       </c>
       <c r="C143" s="2" t="n">
-        <v>45377</v>
+        <v>45381</v>
       </c>
       <c r="D143" t="n">
+        <v>3</v>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
         <v>2</v>
       </c>
-      <c r="E143" t="b">
-        <v>0</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1</v>
-      </c>
       <c r="G143" t="n">
-        <v>2</v>
-      </c>
-      <c r="H143" t="b">
+        <v>3</v>
+      </c>
+      <c r="H143" t="n">
         <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4863,7 +4947,7 @@
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D144" t="n">
         <v>2</v>
@@ -4899,7 +4983,7 @@
         </is>
       </c>
       <c r="C145" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D145" t="n">
         <v>2</v>
@@ -4908,13 +4992,17 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
-      </c>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
       <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -4962,7 +5050,7 @@
         </is>
       </c>
       <c r="C147" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -5028,7 +5116,7 @@
         </is>
       </c>
       <c r="C149" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D149" t="n">
         <v>2</v>
@@ -5072,7 +5160,7 @@
       <c r="G150" t="n">
         <v>1</v>
       </c>
-      <c r="H150" t="b">
+      <c r="H150" t="n">
         <v>1</v>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -5156,7 +5244,7 @@
         </is>
       </c>
       <c r="C153" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D153" t="n">
         <v>3</v>
@@ -5187,24 +5275,26 @@
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>45377</v>
+        <v>45381</v>
       </c>
       <c r="D154" t="n">
+        <v>3</v>
+      </c>
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
         <v>2</v>
       </c>
-      <c r="E154" t="b">
-        <v>0</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1</v>
-      </c>
       <c r="G154" t="n">
-        <v>1</v>
-      </c>
-      <c r="H154" t="b">
-        <v>1</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
       <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -5219,7 +5309,7 @@
         </is>
       </c>
       <c r="C155" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -5251,7 +5341,7 @@
         </is>
       </c>
       <c r="C156" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -5263,9 +5353,11 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
-      </c>
-      <c r="H156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
     </row>
@@ -5314,21 +5406,23 @@
         </is>
       </c>
       <c r="C158" s="2" t="n">
-        <v>45375</v>
+        <v>45393</v>
       </c>
       <c r="D158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
-      </c>
-      <c r="H158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
     </row>
@@ -5345,7 +5439,7 @@
         </is>
       </c>
       <c r="C159" s="2" t="n">
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -5359,7 +5453,7 @@
       <c r="G159" t="n">
         <v>1</v>
       </c>
-      <c r="H159" t="b">
+      <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -5393,7 +5487,7 @@
       <c r="G160" t="n">
         <v>1</v>
       </c>
-      <c r="H160" t="b">
+      <c r="H160" t="n">
         <v>1</v>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -5412,21 +5506,23 @@
         </is>
       </c>
       <c r="C161" s="2" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
-      </c>
-      <c r="H161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H161" t="b">
+        <v>1</v>
+      </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
     </row>
@@ -5475,7 +5571,7 @@
         </is>
       </c>
       <c r="C163" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -5537,24 +5633,26 @@
         </is>
       </c>
       <c r="C165" s="2" t="n">
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="D165" t="n">
+        <v>3</v>
+      </c>
+      <c r="E165" t="b">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
         <v>2</v>
       </c>
-      <c r="E165" t="b">
-        <v>0</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1</v>
-      </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
       </c>
-      <c r="I165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
       <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -5569,7 +5667,7 @@
         </is>
       </c>
       <c r="C166" s="2" t="n">
-        <v>45376</v>
+        <v>45380</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -5581,12 +5679,14 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166" t="b">
         <v>0</v>
       </c>
-      <c r="I166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
       <c r="J166" t="inlineStr"/>
     </row>
     <row r="167">
@@ -5634,7 +5734,7 @@
         </is>
       </c>
       <c r="C168" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -5666,7 +5766,7 @@
         </is>
       </c>
       <c r="C169" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D169" t="n">
         <v>4</v>
@@ -5696,7 +5796,7 @@
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D170" t="n">
         <v>4</v>
@@ -5727,21 +5827,23 @@
         </is>
       </c>
       <c r="C171" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
-      </c>
-      <c r="H171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H171" t="b">
+        <v>1</v>
+      </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
     </row>
@@ -5757,24 +5859,26 @@
         </is>
       </c>
       <c r="C172" s="2" t="n">
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
-      </c>
-      <c r="H172" t="b">
-        <v>1</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
       <c r="J172" t="inlineStr"/>
     </row>
     <row r="173">
@@ -5789,7 +5893,7 @@
         </is>
       </c>
       <c r="C173" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D173" t="n">
         <v>1</v>
@@ -5819,7 +5923,7 @@
         </is>
       </c>
       <c r="C174" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D174" t="n">
         <v>4</v>
@@ -5849,7 +5953,7 @@
         </is>
       </c>
       <c r="C175" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D175" t="n">
         <v>4</v>
@@ -5879,7 +5983,7 @@
         </is>
       </c>
       <c r="C176" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D176" t="n">
         <v>3</v>
@@ -5909,10 +6013,10 @@
         </is>
       </c>
       <c r="C177" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
@@ -5921,9 +6025,11 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
-      </c>
-      <c r="H177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
     </row>
@@ -5939,7 +6045,7 @@
         </is>
       </c>
       <c r="C178" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D178" t="n">
         <v>4</v>
@@ -5983,7 +6089,7 @@
       <c r="G179" t="n">
         <v>2</v>
       </c>
-      <c r="H179" t="b">
+      <c r="H179" t="n">
         <v>1</v>
       </c>
       <c r="I179" t="n">
@@ -6003,21 +6109,23 @@
         </is>
       </c>
       <c r="C180" s="2" t="n">
-        <v>45375</v>
+        <v>45381</v>
       </c>
       <c r="D180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
     </row>
@@ -6033,10 +6141,10 @@
         </is>
       </c>
       <c r="C181" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
@@ -6045,9 +6153,11 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
-      </c>
-      <c r="H181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
     </row>
@@ -6063,7 +6173,7 @@
         </is>
       </c>
       <c r="C182" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D182" t="n">
         <v>4</v>
@@ -6093,7 +6203,7 @@
         </is>
       </c>
       <c r="C183" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D183" t="n">
         <v>2</v>
@@ -6123,7 +6233,7 @@
         </is>
       </c>
       <c r="C184" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -6135,12 +6245,14 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
       <c r="J184" t="inlineStr"/>
     </row>
     <row r="185">
@@ -6156,7 +6268,7 @@
         </is>
       </c>
       <c r="C185" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D185" t="n">
         <v>2</v>
@@ -6186,7 +6298,7 @@
         </is>
       </c>
       <c r="C186" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D186" t="n">
         <v>4</v>
@@ -6216,7 +6328,7 @@
         </is>
       </c>
       <c r="C187" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D187" t="n">
         <v>4</v>
@@ -6246,21 +6358,23 @@
         </is>
       </c>
       <c r="C188" s="2" t="n">
-        <v>45375</v>
+        <v>45403</v>
       </c>
       <c r="D188" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
-      </c>
-      <c r="H188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
     </row>
@@ -6276,21 +6390,23 @@
         </is>
       </c>
       <c r="C189" s="2" t="n">
-        <v>45375</v>
+        <v>45391</v>
       </c>
       <c r="D189" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
     </row>
@@ -6306,21 +6422,23 @@
         </is>
       </c>
       <c r="C190" s="2" t="n">
-        <v>45375</v>
+        <v>45394</v>
       </c>
       <c r="D190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
-      </c>
-      <c r="H190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H190" t="b">
+        <v>1</v>
+      </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
     </row>
@@ -6336,21 +6454,23 @@
         </is>
       </c>
       <c r="C191" s="2" t="n">
-        <v>45375</v>
+        <v>45405</v>
       </c>
       <c r="D191" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
-      </c>
-      <c r="H191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H191" t="b">
+        <v>1</v>
+      </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
     </row>
@@ -6366,7 +6486,7 @@
         </is>
       </c>
       <c r="C192" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D192" t="n">
         <v>3</v>
@@ -6396,24 +6516,26 @@
         </is>
       </c>
       <c r="C193" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D193" t="n">
+        <v>3</v>
+      </c>
+      <c r="E193" t="b">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="n">
         <v>2</v>
       </c>
-      <c r="E193" t="b">
-        <v>0</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="n">
-        <v>1</v>
-      </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
       <c r="J193" t="inlineStr"/>
     </row>
     <row r="194">
@@ -6461,7 +6583,7 @@
         </is>
       </c>
       <c r="C195" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D195" t="n">
         <v>2</v>
@@ -6505,7 +6627,7 @@
       <c r="G196" t="n">
         <v>1</v>
       </c>
-      <c r="H196" t="b">
+      <c r="H196" t="n">
         <v>1</v>
       </c>
       <c r="I196" t="inlineStr"/>
@@ -6523,10 +6645,10 @@
         </is>
       </c>
       <c r="C197" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
@@ -6535,9 +6657,11 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
-      </c>
-      <c r="H197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
     </row>
@@ -6553,21 +6677,23 @@
         </is>
       </c>
       <c r="C198" s="2" t="n">
-        <v>45375</v>
+        <v>45402</v>
       </c>
       <c r="D198" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
     </row>
@@ -6583,7 +6709,7 @@
         </is>
       </c>
       <c r="C199" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D199" t="n">
         <v>3</v>
@@ -6613,21 +6739,23 @@
         </is>
       </c>
       <c r="C200" s="2" t="n">
-        <v>45375</v>
+        <v>45381</v>
       </c>
       <c r="D200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
-      </c>
-      <c r="H200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
     </row>
@@ -6643,7 +6771,7 @@
         </is>
       </c>
       <c r="C201" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D201" t="n">
         <v>1</v>
@@ -6675,7 +6803,7 @@
         </is>
       </c>
       <c r="C202" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D202" t="n">
         <v>4</v>
@@ -6705,7 +6833,7 @@
         </is>
       </c>
       <c r="C203" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D203" t="n">
         <v>3</v>
@@ -6735,7 +6863,7 @@
         </is>
       </c>
       <c r="C204" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -6765,7 +6893,7 @@
         </is>
       </c>
       <c r="C205" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
@@ -6797,7 +6925,7 @@
         </is>
       </c>
       <c r="C206" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D206" t="n">
         <v>2</v>
@@ -6831,7 +6959,7 @@
         </is>
       </c>
       <c r="C207" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -6861,7 +6989,7 @@
         </is>
       </c>
       <c r="C208" s="2" t="n">
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="D208" t="n">
         <v>1</v>
@@ -6875,7 +7003,7 @@
       <c r="G208" t="n">
         <v>1</v>
       </c>
-      <c r="H208" t="b">
+      <c r="H208" t="n">
         <v>1</v>
       </c>
       <c r="I208" t="inlineStr"/>
@@ -6893,7 +7021,7 @@
         </is>
       </c>
       <c r="C209" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -6957,21 +7085,23 @@
         </is>
       </c>
       <c r="C211" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D211" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E211" t="b">
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
-      </c>
-      <c r="H211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
     </row>
@@ -7019,21 +7149,23 @@
         </is>
       </c>
       <c r="C213" s="2" t="n">
-        <v>45375</v>
+        <v>45404</v>
       </c>
       <c r="D213" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E213" t="b">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
-      </c>
-      <c r="H213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
     </row>
@@ -7049,21 +7181,23 @@
         </is>
       </c>
       <c r="C214" s="2" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="D214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E214" t="b">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
-      </c>
-      <c r="H214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H214" t="b">
+        <v>1</v>
+      </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
     </row>
@@ -7079,7 +7213,7 @@
         </is>
       </c>
       <c r="C215" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D215" t="n">
         <v>3</v>
@@ -7111,7 +7245,7 @@
         </is>
       </c>
       <c r="C216" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D216" t="n">
         <v>2</v>
@@ -7141,7 +7275,7 @@
         </is>
       </c>
       <c r="C217" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D217" t="n">
         <v>1</v>
@@ -7173,27 +7307,29 @@
         </is>
       </c>
       <c r="C218" s="2" t="n">
-        <v>45375</v>
+        <v>45381</v>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E218" t="b">
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H218" t="b">
+        <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7221,7 +7357,7 @@
       <c r="G219" t="n">
         <v>1</v>
       </c>
-      <c r="H219" t="b">
+      <c r="H219" t="n">
         <v>1</v>
       </c>
       <c r="I219" t="inlineStr"/>
@@ -7271,7 +7407,7 @@
         </is>
       </c>
       <c r="C221" s="2" t="n">
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="D221" t="n">
         <v>1</v>
@@ -7285,7 +7421,7 @@
       <c r="G221" t="n">
         <v>2</v>
       </c>
-      <c r="H221" t="b">
+      <c r="H221" t="n">
         <v>1</v>
       </c>
       <c r="I221" t="n">
@@ -7305,7 +7441,7 @@
         </is>
       </c>
       <c r="C222" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D222" t="n">
         <v>3</v>
@@ -7336,7 +7472,7 @@
         </is>
       </c>
       <c r="C223" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D223" t="n">
         <v>1</v>
@@ -7368,7 +7504,7 @@
         </is>
       </c>
       <c r="C224" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -7398,7 +7534,7 @@
         </is>
       </c>
       <c r="C225" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D225" t="n">
         <v>2</v>
@@ -7431,7 +7567,7 @@
         </is>
       </c>
       <c r="C226" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D226" t="n">
         <v>2</v>
@@ -7495,7 +7631,7 @@
         </is>
       </c>
       <c r="C228" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D228" t="n">
         <v>4</v>
@@ -7525,7 +7661,7 @@
         </is>
       </c>
       <c r="C229" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D229" t="n">
         <v>4</v>
@@ -7555,7 +7691,7 @@
         </is>
       </c>
       <c r="C230" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D230" t="n">
         <v>3</v>
@@ -7585,21 +7721,23 @@
         </is>
       </c>
       <c r="C231" s="2" t="n">
-        <v>45375</v>
+        <v>45392</v>
       </c>
       <c r="D231" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E231" t="b">
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
-      </c>
-      <c r="H231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
     </row>
@@ -7618,7 +7756,7 @@
         </is>
       </c>
       <c r="C232" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D232" t="n">
         <v>0</v>
@@ -7648,7 +7786,7 @@
         </is>
       </c>
       <c r="C233" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D233" t="n">
         <v>2</v>
@@ -7680,24 +7818,26 @@
         </is>
       </c>
       <c r="C234" s="2" t="n">
-        <v>45375</v>
+        <v>45392</v>
       </c>
       <c r="D234" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E234" t="b">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H234" t="n">
         <v>1</v>
       </c>
-      <c r="I234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
       <c r="J234" t="inlineStr"/>
     </row>
     <row r="235">
@@ -7712,7 +7852,7 @@
         </is>
       </c>
       <c r="C235" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D235" t="n">
         <v>2</v>
@@ -7743,21 +7883,23 @@
         </is>
       </c>
       <c r="C236" s="2" t="n">
-        <v>45375</v>
+        <v>45394</v>
       </c>
       <c r="D236" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E236" t="b">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
-      </c>
-      <c r="H236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H236" t="b">
+        <v>1</v>
+      </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
     </row>
@@ -7805,7 +7947,7 @@
         </is>
       </c>
       <c r="C238" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D238" t="n">
         <v>1</v>
@@ -7835,7 +7977,7 @@
         </is>
       </c>
       <c r="C239" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D239" t="n">
         <v>2</v>
@@ -7865,7 +8007,7 @@
         </is>
       </c>
       <c r="C240" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D240" t="n">
         <v>1</v>
@@ -7895,7 +8037,7 @@
         </is>
       </c>
       <c r="C241" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D241" t="n">
         <v>3</v>
@@ -7925,7 +8067,7 @@
         </is>
       </c>
       <c r="C242" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D242" t="n">
         <v>2</v>
@@ -7955,7 +8097,7 @@
         </is>
       </c>
       <c r="C243" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D243" t="n">
         <v>2</v>
@@ -8018,27 +8160,29 @@
         </is>
       </c>
       <c r="C245" s="2" t="n">
-        <v>45376</v>
+        <v>45380</v>
       </c>
       <c r="D245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E245" t="b">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
-      </c>
-      <c r="H245" t="b">
+        <v>3</v>
+      </c>
+      <c r="H245" t="n">
         <v>1</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8052,21 +8196,23 @@
         </is>
       </c>
       <c r="C246" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E246" t="b">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
-      </c>
-      <c r="H246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H246" t="b">
+        <v>1</v>
+      </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
     </row>
@@ -8082,24 +8228,26 @@
         </is>
       </c>
       <c r="C247" s="2" t="n">
-        <v>45375</v>
+        <v>45394</v>
       </c>
       <c r="D247" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E247" t="b">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H247" t="b">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
       <c r="J247" t="inlineStr"/>
     </row>
     <row r="248">
@@ -8114,24 +8262,26 @@
         </is>
       </c>
       <c r="C248" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E248" t="b">
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
       <c r="J248" t="inlineStr"/>
     </row>
     <row r="249">
@@ -8146,21 +8296,23 @@
         </is>
       </c>
       <c r="C249" s="2" t="n">
-        <v>45375</v>
+        <v>45391</v>
       </c>
       <c r="D249" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E249" t="b">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
-      </c>
-      <c r="H249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
     </row>
@@ -8176,7 +8328,7 @@
         </is>
       </c>
       <c r="C250" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
@@ -8206,7 +8358,7 @@
         </is>
       </c>
       <c r="C251" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
@@ -8236,24 +8388,26 @@
         </is>
       </c>
       <c r="C252" s="2" t="n">
-        <v>45375</v>
+        <v>45391</v>
       </c>
       <c r="D252" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E252" t="b">
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252" t="n">
         <v>1</v>
       </c>
-      <c r="I252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
       <c r="J252" t="inlineStr"/>
     </row>
     <row r="253">
@@ -8269,24 +8423,26 @@
         </is>
       </c>
       <c r="C253" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E253" t="b">
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
       <c r="J253" t="inlineStr"/>
     </row>
     <row r="254">
@@ -8303,10 +8459,10 @@
         </is>
       </c>
       <c r="C254" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E254" t="b">
         <v>0</v>
@@ -8315,9 +8471,11 @@
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
-      </c>
-      <c r="H254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
     </row>
@@ -8333,7 +8491,7 @@
         </is>
       </c>
       <c r="C255" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
@@ -8363,21 +8521,23 @@
         </is>
       </c>
       <c r="C256" s="2" t="n">
-        <v>45375</v>
+        <v>45394</v>
       </c>
       <c r="D256" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E256" t="b">
         <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
-      </c>
-      <c r="H256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H256" t="b">
+        <v>1</v>
+      </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
     </row>
@@ -8393,7 +8553,7 @@
         </is>
       </c>
       <c r="C257" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D257" t="n">
         <v>4</v>
@@ -8423,7 +8583,7 @@
         </is>
       </c>
       <c r="C258" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D258" t="n">
         <v>1</v>
@@ -8469,7 +8629,7 @@
       <c r="G259" t="n">
         <v>2</v>
       </c>
-      <c r="H259" t="b">
+      <c r="H259" t="n">
         <v>1</v>
       </c>
       <c r="I259" t="n">
@@ -8489,7 +8649,7 @@
         </is>
       </c>
       <c r="C260" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D260" t="n">
         <v>3</v>
@@ -8521,7 +8681,7 @@
         </is>
       </c>
       <c r="C261" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D261" t="n">
         <v>2</v>
@@ -8551,7 +8711,7 @@
         </is>
       </c>
       <c r="C262" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D262" t="n">
         <v>2</v>
@@ -8581,7 +8741,7 @@
         </is>
       </c>
       <c r="C263" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
@@ -8611,7 +8771,7 @@
         </is>
       </c>
       <c r="C264" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D264" t="n">
         <v>1</v>
@@ -8641,7 +8801,7 @@
         </is>
       </c>
       <c r="C265" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D265" t="n">
         <v>0</v>
@@ -8673,7 +8833,7 @@
         </is>
       </c>
       <c r="C266" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D266" t="n">
         <v>3</v>
@@ -8703,21 +8863,23 @@
         </is>
       </c>
       <c r="C267" s="2" t="n">
-        <v>45375</v>
+        <v>45404</v>
       </c>
       <c r="D267" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E267" t="b">
         <v>0</v>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
-      </c>
-      <c r="H267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
     </row>
@@ -8733,7 +8895,7 @@
         </is>
       </c>
       <c r="C268" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D268" t="n">
         <v>3</v>
@@ -8765,21 +8927,23 @@
         </is>
       </c>
       <c r="C269" s="2" t="n">
-        <v>45375</v>
+        <v>45403</v>
       </c>
       <c r="D269" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E269" t="b">
         <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
-      </c>
-      <c r="H269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
     </row>
@@ -8795,7 +8959,7 @@
         </is>
       </c>
       <c r="C270" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D270" t="n">
         <v>2</v>
@@ -8826,21 +8990,23 @@
         </is>
       </c>
       <c r="C271" s="2" t="n">
-        <v>45375</v>
+        <v>45404</v>
       </c>
       <c r="D271" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E271" t="b">
         <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
-      </c>
-      <c r="H271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
     </row>
@@ -8888,7 +9054,7 @@
         </is>
       </c>
       <c r="C273" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -8920,22 +9086,26 @@
         </is>
       </c>
       <c r="C274" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E274" t="b">
         <v>0</v>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
-      </c>
-      <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
       <c r="J274" t="inlineStr"/>
     </row>
     <row r="275">
@@ -8950,25 +9120,29 @@
         </is>
       </c>
       <c r="C275" s="2" t="n">
-        <v>45376</v>
+        <v>45381</v>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E275" t="b">
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H275" t="b">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8982,7 +9156,7 @@
         </is>
       </c>
       <c r="C276" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D276" t="n">
         <v>0</v>
@@ -9012,7 +9186,7 @@
         </is>
       </c>
       <c r="C277" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D277" t="n">
         <v>2</v>
@@ -9045,24 +9219,26 @@
         </is>
       </c>
       <c r="C278" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E278" t="b">
         <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H278" t="b">
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
       <c r="J278" t="inlineStr"/>
     </row>
     <row r="279">
@@ -9078,24 +9254,26 @@
         </is>
       </c>
       <c r="C279" s="2" t="n">
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="D279" t="n">
+        <v>3</v>
+      </c>
+      <c r="E279" t="b">
+        <v>0</v>
+      </c>
+      <c r="F279" t="n">
         <v>2</v>
       </c>
-      <c r="E279" t="b">
-        <v>0</v>
-      </c>
-      <c r="F279" t="n">
-        <v>1</v>
-      </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H279" t="n">
         <v>1</v>
       </c>
-      <c r="I279" t="inlineStr"/>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
       <c r="J279" t="inlineStr"/>
     </row>
     <row r="280">
@@ -9111,21 +9289,23 @@
         </is>
       </c>
       <c r="C280" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E280" t="b">
         <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
-      </c>
-      <c r="H280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1</v>
+      </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
     </row>
@@ -9141,21 +9321,23 @@
         </is>
       </c>
       <c r="C281" s="2" t="n">
-        <v>45375</v>
+        <v>45381</v>
       </c>
       <c r="D281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E281" t="b">
         <v>0</v>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
-      </c>
-      <c r="H281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
     </row>
@@ -9171,7 +9353,7 @@
         </is>
       </c>
       <c r="C282" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D282" t="n">
         <v>0</v>
@@ -9201,25 +9383,29 @@
         </is>
       </c>
       <c r="C283" s="2" t="n">
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E283" t="b">
         <v>0</v>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
-      </c>
-      <c r="H283" t="b">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9234,7 +9420,7 @@
         </is>
       </c>
       <c r="C284" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D284" t="n">
         <v>0</v>
@@ -9246,12 +9432,14 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="inlineStr"/>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
       <c r="J284" t="inlineStr"/>
     </row>
     <row r="285">
@@ -9267,7 +9455,7 @@
         </is>
       </c>
       <c r="C285" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D285" t="n">
         <v>3</v>
@@ -9299,7 +9487,7 @@
         </is>
       </c>
       <c r="C286" s="2" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="D286" t="n">
         <v>4</v>
@@ -9333,7 +9521,7 @@
         </is>
       </c>
       <c r="C287" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D287" t="n">
         <v>0</v>
@@ -9365,7 +9553,7 @@
         </is>
       </c>
       <c r="C288" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D288" t="n">
         <v>1</v>
@@ -9428,7 +9616,7 @@
         </is>
       </c>
       <c r="C290" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D290" t="n">
         <v>0</v>
@@ -9458,7 +9646,7 @@
         </is>
       </c>
       <c r="C291" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D291" t="n">
         <v>1</v>
@@ -9488,7 +9676,7 @@
         </is>
       </c>
       <c r="C292" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D292" t="n">
         <v>0</v>
@@ -9500,9 +9688,11 @@
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>0</v>
-      </c>
-      <c r="H292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H292" t="b">
+        <v>0</v>
+      </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
     </row>
@@ -9519,7 +9709,7 @@
         </is>
       </c>
       <c r="C293" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D293" t="n">
         <v>0</v>
@@ -9550,24 +9740,26 @@
         </is>
       </c>
       <c r="C294" s="2" t="n">
-        <v>45375</v>
+        <v>45392</v>
       </c>
       <c r="D294" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E294" t="b">
         <v>0</v>
       </c>
       <c r="F294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H294" t="n">
         <v>1</v>
       </c>
-      <c r="I294" t="inlineStr"/>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
       <c r="J294" t="inlineStr"/>
     </row>
     <row r="295">
@@ -9583,7 +9775,7 @@
         </is>
       </c>
       <c r="C295" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D295" t="n">
         <v>0</v>
@@ -9613,24 +9805,26 @@
         </is>
       </c>
       <c r="C296" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E296" t="b">
         <v>0</v>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
       <c r="J296" t="inlineStr"/>
     </row>
     <row r="297">
@@ -9645,24 +9839,26 @@
         </is>
       </c>
       <c r="C297" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297" t="b">
         <v>0</v>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H297" t="b">
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
       <c r="J297" t="inlineStr"/>
     </row>
     <row r="298">
@@ -9677,7 +9873,7 @@
         </is>
       </c>
       <c r="C298" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D298" t="n">
         <v>3</v>
@@ -9707,21 +9903,23 @@
         </is>
       </c>
       <c r="C299" s="2" t="n">
-        <v>45375</v>
+        <v>45394</v>
       </c>
       <c r="D299" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E299" t="b">
         <v>0</v>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G299" t="n">
-        <v>0</v>
-      </c>
-      <c r="H299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H299" t="b">
+        <v>1</v>
+      </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
     </row>
@@ -9771,7 +9969,7 @@
         </is>
       </c>
       <c r="C301" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D301" t="n">
         <v>2</v>
@@ -9805,7 +10003,7 @@
         </is>
       </c>
       <c r="C302" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D302" t="n">
         <v>1</v>
@@ -9837,7 +10035,7 @@
         </is>
       </c>
       <c r="C303" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D303" t="n">
         <v>1</v>
@@ -9868,21 +10066,23 @@
         </is>
       </c>
       <c r="C304" s="2" t="n">
-        <v>45375</v>
+        <v>45405</v>
       </c>
       <c r="D304" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E304" t="b">
         <v>0</v>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G304" t="n">
-        <v>0</v>
-      </c>
-      <c r="H304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H304" t="b">
+        <v>1</v>
+      </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
     </row>
@@ -9899,24 +10099,26 @@
         </is>
       </c>
       <c r="C305" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E305" t="b">
         <v>0</v>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
       <c r="J305" t="inlineStr"/>
     </row>
     <row r="306">
@@ -9932,7 +10134,7 @@
         </is>
       </c>
       <c r="C306" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D306" t="n">
         <v>0</v>
@@ -9962,27 +10164,29 @@
         </is>
       </c>
       <c r="C307" s="2" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="D307" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E307" t="b">
         <v>0</v>
       </c>
       <c r="F307" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G307" t="n">
-        <v>2</v>
-      </c>
-      <c r="H307" t="n">
+        <v>3</v>
+      </c>
+      <c r="H307" t="b">
         <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -9996,7 +10200,7 @@
         </is>
       </c>
       <c r="C308" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D308" t="n">
         <v>0</v>
@@ -10026,7 +10230,7 @@
         </is>
       </c>
       <c r="C309" s="2" t="n">
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="D309" t="n">
         <v>1</v>
@@ -10040,7 +10244,7 @@
       <c r="G309" t="n">
         <v>2</v>
       </c>
-      <c r="H309" t="b">
+      <c r="H309" t="n">
         <v>1</v>
       </c>
       <c r="I309" t="n">
@@ -10061,24 +10265,26 @@
         </is>
       </c>
       <c r="C310" s="2" t="n">
-        <v>45378</v>
+        <v>45405</v>
       </c>
       <c r="D310" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E310" t="b">
         <v>0</v>
       </c>
       <c r="F310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
-      </c>
-      <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H310" t="b">
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1</v>
+      </c>
       <c r="J310" t="inlineStr"/>
     </row>
     <row r="311">
@@ -10093,7 +10299,7 @@
         </is>
       </c>
       <c r="C311" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D311" t="n">
         <v>1</v>
@@ -10105,12 +10311,14 @@
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="inlineStr"/>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
       <c r="J311" t="inlineStr"/>
     </row>
     <row r="312">
@@ -10127,7 +10335,7 @@
         </is>
       </c>
       <c r="C312" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D312" t="n">
         <v>0</v>
@@ -10159,7 +10367,7 @@
         </is>
       </c>
       <c r="C313" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D313" t="n">
         <v>3</v>
@@ -10190,22 +10398,26 @@
         </is>
       </c>
       <c r="C314" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D314" t="n">
+        <v>1</v>
+      </c>
+      <c r="E314" t="b">
+        <v>0</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0</v>
+      </c>
+      <c r="G314" t="n">
         <v>2</v>
       </c>
-      <c r="E314" t="b">
-        <v>0</v>
-      </c>
-      <c r="F314" t="n">
-        <v>0</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0</v>
-      </c>
-      <c r="H314" t="inlineStr"/>
-      <c r="I314" t="inlineStr"/>
+      <c r="H314" t="b">
+        <v>0</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
       <c r="J314" t="inlineStr"/>
     </row>
     <row r="315">
@@ -10223,7 +10435,7 @@
         </is>
       </c>
       <c r="C315" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D315" t="n">
         <v>4</v>
@@ -10255,7 +10467,7 @@
         </is>
       </c>
       <c r="C316" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D316" t="n">
         <v>3</v>
@@ -10286,21 +10498,23 @@
         </is>
       </c>
       <c r="C317" s="2" t="n">
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="D317" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E317" t="b">
         <v>0</v>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G317" t="n">
-        <v>0</v>
-      </c>
-      <c r="H317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H317" t="n">
+        <v>1</v>
+      </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
     </row>
@@ -10316,7 +10530,7 @@
         </is>
       </c>
       <c r="C318" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D318" t="n">
         <v>0</v>
@@ -10348,7 +10562,7 @@
         </is>
       </c>
       <c r="C319" s="2" t="n">
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="D319" t="n">
         <v>0</v>
@@ -10362,7 +10576,7 @@
       <c r="G319" t="n">
         <v>2</v>
       </c>
-      <c r="H319" t="b">
+      <c r="H319" t="n">
         <v>0</v>
       </c>
       <c r="I319" t="n">
@@ -10383,7 +10597,7 @@
         </is>
       </c>
       <c r="C320" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D320" t="n">
         <v>2</v>
@@ -10417,7 +10631,7 @@
         </is>
       </c>
       <c r="C321" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D321" t="n">
         <v>1</v>
@@ -10451,7 +10665,7 @@
         </is>
       </c>
       <c r="C322" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D322" t="n">
         <v>4</v>
@@ -10482,7 +10696,7 @@
         </is>
       </c>
       <c r="C323" s="2" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="D323" t="n">
         <v>2</v>
@@ -10496,7 +10710,7 @@
       <c r="G323" t="n">
         <v>3</v>
       </c>
-      <c r="H323" t="b">
+      <c r="H323" t="n">
         <v>1</v>
       </c>
       <c r="I323" t="n">
@@ -10518,7 +10732,7 @@
         </is>
       </c>
       <c r="C324" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D324" t="n">
         <v>1</v>
@@ -10552,7 +10766,7 @@
         </is>
       </c>
       <c r="C325" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D325" t="n">
         <v>2</v>
@@ -10583,24 +10797,26 @@
         </is>
       </c>
       <c r="C326" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E326" t="b">
         <v>0</v>
       </c>
       <c r="F326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
       <c r="J326" t="inlineStr"/>
     </row>
     <row r="327">
@@ -10616,19 +10832,19 @@
         </is>
       </c>
       <c r="C327" s="2" t="n">
-        <v>45375</v>
+        <v>45392</v>
       </c>
       <c r="D327" t="n">
+        <v>4</v>
+      </c>
+      <c r="E327" t="b">
+        <v>0</v>
+      </c>
+      <c r="F327" t="n">
         <v>3</v>
       </c>
-      <c r="E327" t="b">
-        <v>0</v>
-      </c>
-      <c r="F327" t="n">
-        <v>2</v>
-      </c>
       <c r="G327" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H327" t="n">
         <v>1</v>
@@ -10636,7 +10852,9 @@
       <c r="I327" t="n">
         <v>1</v>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -10651,7 +10869,7 @@
         </is>
       </c>
       <c r="C328" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D328" t="n">
         <v>0</v>
@@ -10681,7 +10899,7 @@
         </is>
       </c>
       <c r="C329" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D329" t="n">
         <v>0</v>
@@ -10693,9 +10911,11 @@
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>0</v>
-      </c>
-      <c r="H329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
     </row>
@@ -10711,19 +10931,19 @@
         </is>
       </c>
       <c r="C330" s="2" t="n">
-        <v>45375</v>
+        <v>45381</v>
       </c>
       <c r="D330" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E330" t="b">
         <v>0</v>
       </c>
       <c r="F330" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G330" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H330" t="n">
         <v>1</v>
@@ -10731,7 +10951,9 @@
       <c r="I330" t="n">
         <v>1</v>
       </c>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -10746,24 +10968,26 @@
         </is>
       </c>
       <c r="C331" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E331" t="b">
         <v>0</v>
       </c>
       <c r="F331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
       <c r="J331" t="inlineStr"/>
     </row>
     <row r="332">
@@ -10778,7 +11002,7 @@
         </is>
       </c>
       <c r="C332" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D332" t="n">
         <v>2</v>
@@ -10813,7 +11037,7 @@
         </is>
       </c>
       <c r="C333" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D333" t="n">
         <v>0</v>
@@ -10843,21 +11067,23 @@
         </is>
       </c>
       <c r="C334" s="2" t="n">
-        <v>45375</v>
+        <v>45394</v>
       </c>
       <c r="D334" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E334" t="b">
         <v>0</v>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334" t="n">
-        <v>0</v>
-      </c>
-      <c r="H334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H334" t="b">
+        <v>1</v>
+      </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
     </row>
@@ -10874,7 +11100,7 @@
         </is>
       </c>
       <c r="C335" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D335" t="n">
         <v>0</v>
@@ -10886,9 +11112,11 @@
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>0</v>
-      </c>
-      <c r="H335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
     </row>
@@ -10904,7 +11132,7 @@
         </is>
       </c>
       <c r="C336" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D336" t="n">
         <v>0</v>
@@ -10916,9 +11144,11 @@
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>0</v>
-      </c>
-      <c r="H336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H336" t="b">
+        <v>0</v>
+      </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
     </row>
@@ -10934,7 +11164,7 @@
         </is>
       </c>
       <c r="C337" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D337" t="n">
         <v>2</v>
@@ -10966,7 +11196,7 @@
         </is>
       </c>
       <c r="C338" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D338" t="n">
         <v>0</v>
@@ -10978,9 +11208,11 @@
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>0</v>
-      </c>
-      <c r="H338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
     </row>
@@ -10996,7 +11228,7 @@
         </is>
       </c>
       <c r="C339" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D339" t="n">
         <v>0</v>
@@ -11008,9 +11240,11 @@
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>0</v>
-      </c>
-      <c r="H339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H339" t="b">
+        <v>0</v>
+      </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
     </row>
@@ -11026,7 +11260,7 @@
         </is>
       </c>
       <c r="C340" s="2" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="D340" t="n">
         <v>4</v>
@@ -11072,7 +11306,7 @@
       <c r="G341" t="n">
         <v>1</v>
       </c>
-      <c r="H341" t="b">
+      <c r="H341" t="n">
         <v>1</v>
       </c>
       <c r="I341" t="inlineStr"/>
@@ -11090,7 +11324,7 @@
         </is>
       </c>
       <c r="C342" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D342" t="n">
         <v>4</v>
@@ -11120,7 +11354,7 @@
         </is>
       </c>
       <c r="C343" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D343" t="n">
         <v>3</v>
@@ -11150,10 +11384,10 @@
         </is>
       </c>
       <c r="C344" s="2" t="n">
-        <v>45375</v>
+        <v>45381</v>
       </c>
       <c r="D344" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E344" t="b">
         <v>0</v>
@@ -11162,9 +11396,11 @@
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>0</v>
-      </c>
-      <c r="H344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
     </row>
@@ -11183,7 +11419,7 @@
         </is>
       </c>
       <c r="C345" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D345" t="n">
         <v>2</v>
@@ -11216,7 +11452,7 @@
         </is>
       </c>
       <c r="C346" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D346" t="n">
         <v>3</v>
@@ -11250,7 +11486,7 @@
         </is>
       </c>
       <c r="C347" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D347" t="n">
         <v>0</v>
@@ -11285,21 +11521,23 @@
         </is>
       </c>
       <c r="C348" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E348" t="b">
         <v>0</v>
       </c>
       <c r="F348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G348" t="n">
-        <v>0</v>
-      </c>
-      <c r="H348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H348" t="n">
+        <v>1</v>
+      </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
     </row>
@@ -11315,21 +11553,23 @@
         </is>
       </c>
       <c r="C349" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D349" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E349" t="b">
         <v>0</v>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G349" t="n">
-        <v>0</v>
-      </c>
-      <c r="H349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H349" t="n">
+        <v>1</v>
+      </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
     </row>
@@ -11345,7 +11585,7 @@
         </is>
       </c>
       <c r="C350" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D350" t="n">
         <v>0</v>
@@ -11357,9 +11597,11 @@
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>0</v>
-      </c>
-      <c r="H350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
     </row>
@@ -11391,7 +11633,7 @@
       <c r="G351" t="n">
         <v>1</v>
       </c>
-      <c r="H351" t="b">
+      <c r="H351" t="n">
         <v>1</v>
       </c>
       <c r="I351" t="inlineStr"/>
@@ -11409,25 +11651,29 @@
         </is>
       </c>
       <c r="C352" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E352" t="b">
         <v>0</v>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H352" t="b">
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -11441,7 +11687,7 @@
         </is>
       </c>
       <c r="C353" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D353" t="n">
         <v>3</v>
@@ -11471,21 +11717,23 @@
         </is>
       </c>
       <c r="C354" s="2" t="n">
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="D354" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E354" t="b">
         <v>0</v>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G354" t="n">
-        <v>0</v>
-      </c>
-      <c r="H354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H354" t="n">
+        <v>1</v>
+      </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
     </row>
@@ -11535,24 +11783,26 @@
         </is>
       </c>
       <c r="C356" s="2" t="n">
-        <v>45375</v>
+        <v>45380</v>
       </c>
       <c r="D356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E356" t="b">
         <v>0</v>
       </c>
       <c r="F356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H356" t="n">
         <v>1</v>
       </c>
-      <c r="I356" t="inlineStr"/>
+      <c r="I356" t="n">
+        <v>1</v>
+      </c>
       <c r="J356" t="inlineStr"/>
     </row>
     <row r="357">
@@ -11568,21 +11818,23 @@
         </is>
       </c>
       <c r="C357" s="2" t="n">
-        <v>45375</v>
+        <v>45402</v>
       </c>
       <c r="D357" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E357" t="b">
         <v>0</v>
       </c>
       <c r="F357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
-      </c>
-      <c r="H357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H357" t="n">
+        <v>1</v>
+      </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
     </row>
@@ -11598,7 +11850,7 @@
         </is>
       </c>
       <c r="C358" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -11610,9 +11862,11 @@
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>0</v>
-      </c>
-      <c r="H358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
     </row>
@@ -11630,7 +11884,7 @@
         </is>
       </c>
       <c r="C359" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D359" t="n">
         <v>4</v>
@@ -11661,7 +11915,7 @@
         </is>
       </c>
       <c r="C360" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -11693,21 +11947,23 @@
         </is>
       </c>
       <c r="C361" s="2" t="n">
-        <v>45375</v>
+        <v>45402</v>
       </c>
       <c r="D361" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E361" t="b">
         <v>0</v>
       </c>
       <c r="F361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G361" t="n">
-        <v>0</v>
-      </c>
-      <c r="H361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H361" t="n">
+        <v>1</v>
+      </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
     </row>
@@ -11723,7 +11979,7 @@
         </is>
       </c>
       <c r="C362" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -11755,7 +12011,7 @@
         </is>
       </c>
       <c r="C363" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D363" t="n">
         <v>3</v>
@@ -11787,7 +12043,7 @@
         </is>
       </c>
       <c r="C364" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -11820,24 +12076,26 @@
         </is>
       </c>
       <c r="C365" s="2" t="n">
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="D365" t="n">
+        <v>3</v>
+      </c>
+      <c r="E365" t="b">
+        <v>0</v>
+      </c>
+      <c r="F365" t="n">
         <v>2</v>
       </c>
-      <c r="E365" t="b">
-        <v>0</v>
-      </c>
-      <c r="F365" t="n">
-        <v>1</v>
-      </c>
       <c r="G365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H365" t="n">
         <v>1</v>
       </c>
-      <c r="I365" t="inlineStr"/>
+      <c r="I365" t="n">
+        <v>1</v>
+      </c>
       <c r="J365" t="inlineStr"/>
     </row>
     <row r="366">
@@ -11852,7 +12110,7 @@
         </is>
       </c>
       <c r="C366" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -11884,7 +12142,7 @@
         </is>
       </c>
       <c r="C367" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -11896,9 +12154,11 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>0</v>
-      </c>
-      <c r="H367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
     </row>
@@ -11915,7 +12175,7 @@
         </is>
       </c>
       <c r="C368" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D368" t="n">
         <v>3</v>
@@ -11945,7 +12205,7 @@
         </is>
       </c>
       <c r="C369" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D369" t="n">
         <v>2</v>
@@ -11977,7 +12237,7 @@
         </is>
       </c>
       <c r="C370" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D370" t="n">
         <v>3</v>
@@ -12009,7 +12269,7 @@
         </is>
       </c>
       <c r="C371" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -12040,7 +12300,7 @@
         </is>
       </c>
       <c r="C372" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -12072,7 +12332,7 @@
         </is>
       </c>
       <c r="C373" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D373" t="n">
         <v>1</v>
@@ -12102,10 +12362,10 @@
         </is>
       </c>
       <c r="C374" s="2" t="n">
-        <v>45375</v>
+        <v>45381</v>
       </c>
       <c r="D374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E374" t="b">
         <v>0</v>
@@ -12114,9 +12374,11 @@
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>0</v>
-      </c>
-      <c r="H374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H374" t="b">
+        <v>0</v>
+      </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
     </row>
@@ -12132,7 +12394,7 @@
         </is>
       </c>
       <c r="C375" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D375" t="n">
         <v>3</v>
@@ -12163,7 +12425,7 @@
         </is>
       </c>
       <c r="C376" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D376" t="n">
         <v>0</v>
@@ -12193,21 +12455,23 @@
         </is>
       </c>
       <c r="C377" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E377" t="b">
         <v>0</v>
       </c>
       <c r="F377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G377" t="n">
-        <v>0</v>
-      </c>
-      <c r="H377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H377" t="n">
+        <v>1</v>
+      </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
     </row>
@@ -12225,24 +12489,26 @@
         </is>
       </c>
       <c r="C378" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E378" t="b">
         <v>0</v>
       </c>
       <c r="F378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0</v>
+      </c>
       <c r="J378" t="inlineStr"/>
     </row>
     <row r="379">
@@ -12257,21 +12523,23 @@
         </is>
       </c>
       <c r="C379" s="2" t="n">
-        <v>45375</v>
+        <v>45393</v>
       </c>
       <c r="D379" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E379" t="b">
         <v>0</v>
       </c>
       <c r="F379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G379" t="n">
-        <v>0</v>
-      </c>
-      <c r="H379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H379" t="n">
+        <v>1</v>
+      </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
     </row>
@@ -12288,7 +12556,7 @@
         </is>
       </c>
       <c r="C380" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D380" t="n">
         <v>1</v>
@@ -12300,9 +12568,11 @@
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>0</v>
-      </c>
-      <c r="H380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
     </row>
@@ -12318,7 +12588,7 @@
         </is>
       </c>
       <c r="C381" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D381" t="n">
         <v>0</v>
@@ -12348,7 +12618,7 @@
         </is>
       </c>
       <c r="C382" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D382" t="n">
         <v>0</v>
@@ -12378,7 +12648,7 @@
         </is>
       </c>
       <c r="C383" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="D383" t="n">
         <v>4</v>
